--- a/documentation/tutorialModelExport.xlsx
+++ b/documentation/tutorialModelExport.xlsx
@@ -11,16 +11,17 @@
     <sheet name="scatter treatment" sheetId="3" r:id="rId5"/>
     <sheet name="Peaks &amp; indicies" sheetId="4" r:id="rId6"/>
     <sheet name="PARAFAC model overview" sheetId="5" r:id="rId7"/>
-    <sheet name="5C Fl. max." sheetId="6" r:id="rId8"/>
-    <sheet name="5C ex loadings" sheetId="7" r:id="rId9"/>
-    <sheet name="5C em loadings" sheetId="8" r:id="rId10"/>
+    <sheet name="Split-validation approach" sheetId="6" r:id="rId8"/>
+    <sheet name="5C Fl. max." sheetId="7" r:id="rId9"/>
+    <sheet name="5C ex loadings" sheetId="8" r:id="rId10"/>
+    <sheet name="5C em loadings" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="275" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="281" uniqueCount="174">
   <si>
     <t>Date / time</t>
   </si>
@@ -76,7 +77,7 @@
     <t>exportresults</t>
   </si>
   <si>
-    <t>Comment by analyst</t>
+    <t>Comment by analyst_1</t>
   </si>
   <si>
     <t>Erased the ' (01)' string pattern from sample names.</t>
@@ -97,6 +98,39 @@
     <t>Still very correlated scores. There's a noisy component. Perhaps delete some of the noisy short ex-wavelengths?</t>
   </si>
   <si>
+    <t>The component spectra look smooth but have some features we don't generally like much.</t>
+  </si>
+  <si>
+    <t>It does not look like that made a difference.</t>
+  </si>
+  <si>
+    <t>This is the first run with low convergence criterion and many starts to find the global minimum.</t>
+  </si>
+  <si>
+    <t>Created separate dataset to refine the scatter removal.</t>
+  </si>
+  <si>
+    <t>Residuals look more random</t>
+  </si>
+  <si>
+    <t>Comment by analyst_2</t>
+  </si>
+  <si>
+    <t>Samples 2-4 have a high modeling error and leverage. Outliers?</t>
+  </si>
+  <si>
+    <t>Increasing the number of maximum permitted iterations since the limit was hit with 5-6 components.</t>
+  </si>
+  <si>
+    <t>Ready for an attempt at model validation.</t>
+  </si>
+  <si>
+    <t>Comment by analyst_3</t>
+  </si>
+  <si>
+    <t>Residuals of models with many components show sign of leftover scatter</t>
+  </si>
+  <si>
     <t>Function message</t>
   </si>
   <si>
@@ -163,28 +197,28 @@
     <t>exported results</t>
   </si>
   <si>
-    <t>Aspect</t>
-  </si>
-  <si>
-    <t>spectralCorrection</t>
-  </si>
-  <si>
-    <t>IFEcorrection</t>
-  </si>
-  <si>
-    <t>blankSubtraction</t>
-  </si>
-  <si>
-    <t>signalCalibration</t>
-  </si>
-  <si>
-    <t>scatterTreatment</t>
-  </si>
-  <si>
-    <t>signalScaling</t>
-  </si>
-  <si>
-    <t>absorbanceUnit</t>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Spectral correction</t>
+  </si>
+  <si>
+    <t>Inner filter effect correction</t>
+  </si>
+  <si>
+    <t>Blank subtraction</t>
+  </si>
+  <si>
+    <t>Fluorescence signal calibration</t>
+  </si>
+  <si>
+    <t>Scatter treatment</t>
+  </si>
+  <si>
+    <t>Fluorescence signal scaling</t>
+  </si>
+  <si>
+    <t>Absorbance unit</t>
   </si>
   <si>
     <t>Status</t>
@@ -205,30 +239,6 @@
     <t>absorbance per cm</t>
   </si>
   <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Spectral correction</t>
-  </si>
-  <si>
-    <t>Inner filter effect correction</t>
-  </si>
-  <si>
-    <t>Blank subtraction</t>
-  </si>
-  <si>
-    <t>Fluorescence signal calibration</t>
-  </si>
-  <si>
-    <t>Scatter treatment</t>
-  </si>
-  <si>
-    <t>Fluorescence signal scaling</t>
-  </si>
-  <si>
-    <t>Absorbance unit</t>
-  </si>
-  <si>
     <t>Scatter deleted (Ray/Ram 1st/2nd)</t>
   </si>
   <si>
@@ -304,7 +314,7 @@
     <t>18  18</t>
   </si>
   <si>
-    <t>handlescatter executed on 08-Feb-2025 11:41:44</t>
+    <t>handlescatter executed on 09-Feb-2025 07:12:39</t>
   </si>
   <si>
     <t>filelist</t>
@@ -448,12 +458,12 @@
     <t>not yet validated</t>
   </si>
   <si>
+    <t>not validated</t>
+  </si>
+  <si>
     <t>validated</t>
   </si>
   <si>
-    <t>not validated</t>
-  </si>
-  <si>
     <t>percentExplained</t>
   </si>
   <si>
@@ -497,6 +507,24 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Split by Variable</t>
+  </si>
+  <si>
+    <t>option not used.</t>
+  </si>
+  <si>
+    <t>Number of splits</t>
+  </si>
+  <si>
+    <t>Assignment into splits</t>
+  </si>
+  <si>
+    <t>Date / time created</t>
+  </si>
+  <si>
+    <t>Dataset history entry #</t>
   </si>
   <si>
     <t>sample</t>
@@ -560,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,7 +597,9 @@
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
     <col min="2" max="2" width="18" customWidth="true"/>
     <col min="3" max="3" width="100.140625" customWidth="true"/>
-    <col min="4" max="4" width="334.5703125" customWidth="true"/>
+    <col min="4" max="4" width="90.28515625" customWidth="true"/>
+    <col min="5" max="5" width="65.42578125" customWidth="true"/>
+    <col min="6" max="6" width="334.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -583,7 +613,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -596,8 +632,10 @@
       <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>26</v>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -610,8 +648,10 @@
       <c r="C3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>27</v>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -622,8 +662,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="0"/>
-      <c r="D4" s="0" t="s">
-        <v>28</v>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -634,8 +676,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0"/>
-      <c r="D5" s="0" t="s">
-        <v>29</v>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -646,8 +690,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="0"/>
-      <c r="D6" s="0" t="s">
-        <v>30</v>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -658,8 +704,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0"/>
-      <c r="D7" s="0" t="s">
-        <v>31</v>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -670,8 +718,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="0"/>
-      <c r="D8" s="0" t="s">
-        <v>32</v>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -682,8 +732,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="0"/>
-      <c r="D9" s="0" t="s">
-        <v>33</v>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -694,8 +746,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="0"/>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -706,8 +760,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="0"/>
-      <c r="D11" s="0" t="s">
-        <v>35</v>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +774,15 @@
         <v>11</v>
       </c>
       <c r="C12" s="0"/>
-      <c r="D12" s="0" t="s">
-        <v>36</v>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45696.433801807281</v>
+        <v>45697.297928973188</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>12</v>
@@ -732,13 +790,15 @@
       <c r="C13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>37</v>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45696.433959576825</v>
+        <v>45697.298110971446</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>12</v>
@@ -746,13 +806,15 @@
       <c r="C14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>37</v>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>45696.433978215151</v>
+        <v>45697.298135057375</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>13</v>
@@ -760,13 +822,15 @@
       <c r="C15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>38</v>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>45696.434098247068</v>
+        <v>45697.298230339562</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>12</v>
@@ -774,188 +838,210 @@
       <c r="C16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>37</v>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>45696.434118035257</v>
+        <v>45697.29825319213</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="0"/>
-      <c r="D17" s="0" t="s">
-        <v>39</v>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>45696.434240520291</v>
+        <v>45697.298372534395</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="0"/>
+      <c r="C18" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>45696.436671992371</v>
+        <v>45697.298411392912</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="0"/>
-      <c r="D19" s="0" t="s">
-        <v>40</v>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>45696.436672255433</v>
+        <v>45697.29841335419</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="0"/>
-      <c r="D20" s="0" t="s">
-        <v>41</v>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>45696.436854859334</v>
+        <v>45697.298548881532</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0" t="s">
-        <v>37</v>
+      <c r="C21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>45696.438119558894</v>
+        <v>45697.300351986953</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="0"/>
+      <c r="C22" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>45696.471380855364</v>
+        <v>45697.300454943659</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>45696.486372382737</v>
+        <v>45697.302667354023</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="0"/>
+      <c r="C24" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="D24" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>45696.487323226713</v>
+        <v>45697.302739341736</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0"/>
-      <c r="D25" s="0" t="s">
-        <v>34</v>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>45696.491645452712</v>
+        <v>45697.303940013429</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="0"/>
-      <c r="D26" s="0" t="s">
-        <v>37</v>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>45696.498468853701</v>
+        <v>45697.303978745636</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="0"/>
-      <c r="D27" s="0" t="s">
-        <v>42</v>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>45696.500957000644</v>
+        <v>45697.304403363138</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0"/>
-      <c r="D28" s="0" t="s">
-        <v>43</v>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>45696.501889269544</v>
+        <v>45697.304403989154</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="0"/>
-      <c r="D29" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>45696.710697178874</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>45696.710697363815</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0" t="s">
-        <v>46</v>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -964,103 +1050,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="true"/>
+    <col min="1" max="1" width="28.28515625" customWidth="true"/>
     <col min="2" max="2" width="43.7109375" customWidth="true"/>
-    <col min="3" max="3" width="28.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1091,154 +1152,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="L5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1272,54 +1333,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>17.712130374148796</v>
@@ -1364,7 +1425,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>17.394819294425652</v>
@@ -1409,7 +1470,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>16.151440326226489</v>
@@ -1454,7 +1515,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>15.633579721767994</v>
@@ -1499,7 +1560,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>15.701182689086012</v>
@@ -1544,7 +1605,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>15.731431379594</v>
@@ -1589,7 +1650,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>17.667861675397535</v>
@@ -1634,7 +1695,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>18.339213473787741</v>
@@ -1679,7 +1740,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>17.756647404551057</v>
@@ -1724,7 +1785,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>17.16897991452959</v>
@@ -1769,7 +1830,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>16.598154266999554</v>
@@ -1814,7 +1875,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <v>20.654941084513457</v>
@@ -1859,7 +1920,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>17.61472590220589</v>
@@ -1904,7 +1965,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>18.411993336694142</v>
@@ -1949,7 +2010,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>17.989333539140073</v>
@@ -1994,7 +2055,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <v>18.118131711521468</v>
@@ -2039,7 +2100,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>17.674564398175757</v>
@@ -2084,7 +2145,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>17.525692732760142</v>
@@ -2129,7 +2190,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>16.855285817294444</v>
@@ -2174,7 +2235,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>17.194312015972066</v>
@@ -2219,7 +2280,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>17.173625816910963</v>
@@ -2264,7 +2325,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>17.13222962898752</v>
@@ -2309,7 +2370,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B24">
         <v>17.384563624280471</v>
@@ -2354,7 +2415,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B25">
         <v>17.997741129196054</v>
@@ -2399,7 +2460,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B26">
         <v>18.328174485618753</v>
@@ -2444,7 +2505,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <v>18.530258247376935</v>
@@ -2489,7 +2550,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B28">
         <v>19.072355775212131</v>
@@ -2534,7 +2595,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B29">
         <v>19.543815813297762</v>
@@ -2579,7 +2640,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B30">
         <v>18.54490630916062</v>
@@ -2650,40 +2711,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -2691,22 +2752,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C2">
-        <v>99.32464792716307</v>
+        <v>99.324648026182757</v>
       </c>
       <c r="D2">
-        <v>127.39175554596645</v>
+        <v>127.39173686786768</v>
       </c>
       <c r="E2">
-        <v>58.671392421380595</v>
+        <v>58.678309819345699</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -2715,13 +2776,13 @@
         <v>1e-08</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -2729,22 +2790,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C3">
-        <v>99.823167988651889</v>
+        <v>99.823167988402375</v>
       </c>
       <c r="D3">
-        <v>33.355846925490319</v>
+        <v>33.355846972555511</v>
       </c>
       <c r="E3">
-        <v>35.952409809375162</v>
+        <v>35.955039929395149</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2753,13 +2814,13 @@
         <v>1e-08</v>
       </c>
       <c r="J3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -2767,22 +2828,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C4">
-        <v>99.941255616509679</v>
+        <v>99.941255616609141</v>
       </c>
       <c r="D4">
-        <v>11.080961238279636</v>
+        <v>11.08096121951791</v>
       </c>
       <c r="E4">
-        <v>7.1539950253378777</v>
+        <v>7.1749691608687609</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2791,13 +2852,13 @@
         <v>1e-08</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -2805,22 +2866,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C5">
-        <v>99.966188110779086</v>
+        <v>99.966188111138635</v>
       </c>
       <c r="D5">
-        <v>6.3779413722437672</v>
+        <v>6.3779413044232545</v>
       </c>
       <c r="E5">
-        <v>13.85727237785771</v>
+        <v>13.834324912116823</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -2829,13 +2890,13 @@
         <v>1e-08</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
@@ -2843,22 +2904,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6">
-        <v>99.97395897162049</v>
+        <v>99.973958989864755</v>
       </c>
       <c r="D6">
-        <v>4.9121228095918266</v>
+        <v>4.9121193681740385</v>
       </c>
       <c r="E6">
-        <v>0.40574208671525502</v>
+        <v>0.4055087844862526</v>
       </c>
       <c r="F6">
-        <v>57.999999999999993</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -2867,13 +2928,13 @@
         <v>1e-08</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -2881,22 +2942,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C7">
-        <v>99.979276754949026</v>
+        <v>99.979276745123201</v>
       </c>
       <c r="D7">
-        <v>3.9090285997969971</v>
+        <v>3.909030453245145</v>
       </c>
       <c r="E7">
-        <v>0.28072629828150841</v>
+        <v>0.28087302388741797</v>
       </c>
       <c r="F7">
-        <v>68</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -2905,13 +2966,13 @@
         <v>1e-08</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2919,6 +2980,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="15.85546875" customWidth="true"/>
+    <col min="3" max="3" width="20.7109375" customWidth="true"/>
+    <col min="4" max="4" width="18.28515625" customWidth="true"/>
+    <col min="5" max="5" width="21" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45697.302739341736</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -2936,609 +3050,609 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>0.32179330528771199</v>
+        <v>0.083901890387781328</v>
       </c>
       <c r="C2">
-        <v>0.083834859774119211</v>
+        <v>0.1259113982393967</v>
       </c>
       <c r="D2">
-        <v>0.095686126126933641</v>
+        <v>0.09552045864750254</v>
       </c>
       <c r="E2">
-        <v>0.1259356013134765</v>
+        <v>0.079707542522374469</v>
       </c>
       <c r="F2">
-        <v>0.079702541300693472</v>
+        <v>0.32190110947267947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>0.63651044099347809</v>
+        <v>0.15973687978170706</v>
       </c>
       <c r="C3">
-        <v>0.15960172796096284</v>
+        <v>0.23730746958062884</v>
       </c>
       <c r="D3">
-        <v>0.18759768555268791</v>
+        <v>0.18728239602726346</v>
       </c>
       <c r="E3">
-        <v>0.23735439553389565</v>
+        <v>0.1623686845333521</v>
       </c>
       <c r="F3">
-        <v>0.16236025803451754</v>
+        <v>0.63671476776806069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>0.63761266091673818</v>
+        <v>0.16589161904245164</v>
       </c>
       <c r="C4">
-        <v>0.16575230052918699</v>
+        <v>0.23455237063983475</v>
       </c>
       <c r="D4">
-        <v>0.19161559773298173</v>
+        <v>0.19129086893524583</v>
       </c>
       <c r="E4">
-        <v>0.23459985422185226</v>
+        <v>0.17204186833636878</v>
       </c>
       <c r="F4">
-        <v>0.17203368857952087</v>
+        <v>0.63781924362612041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>0.2106435350200784</v>
+        <v>0.050666118871371735</v>
       </c>
       <c r="C5">
-        <v>0.050604758119069698</v>
+        <v>0.061334159083097209</v>
       </c>
       <c r="D5">
-        <v>0.076571454302661865</v>
+        <v>0.076466854192969794</v>
       </c>
       <c r="E5">
-        <v>0.061347538060924717</v>
+        <v>0.067089718068275031</v>
       </c>
       <c r="F5">
-        <v>0.067088272547649069</v>
+        <v>0.21070110219988716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>0.21050785619500062</v>
+        <v>0.050481231284761688</v>
       </c>
       <c r="C6">
-        <v>0.050420057748765248</v>
+        <v>0.061348790563010874</v>
       </c>
       <c r="D6">
-        <v>0.07613438568172616</v>
+        <v>0.076029829530471424</v>
       </c>
       <c r="E6">
-        <v>0.061362513156581575</v>
+        <v>0.07258623879494823</v>
       </c>
       <c r="F6">
-        <v>0.072585063750207429</v>
+        <v>0.21056548338823869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7">
-        <v>0.21088983634997013</v>
+        <v>0.049589313020763276</v>
       </c>
       <c r="C7">
-        <v>0.049527897644359449</v>
+        <v>0.061900819678975517</v>
       </c>
       <c r="D7">
-        <v>0.076182883566785278</v>
+        <v>0.076079428465311932</v>
       </c>
       <c r="E7">
-        <v>0.06191455761928339</v>
+        <v>0.068081072407831858</v>
       </c>
       <c r="F7">
-        <v>0.068079556670580119</v>
+        <v>0.21094697984075433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>0.24810594000501818</v>
+        <v>0.070060803969447819</v>
       </c>
       <c r="C8">
-        <v>0.070011599641728886</v>
+        <v>0.09459001997004983</v>
       </c>
       <c r="D8">
-        <v>0.073354464398458857</v>
+        <v>0.073222791437362697</v>
       </c>
       <c r="E8">
-        <v>0.094609725388950169</v>
+        <v>0.063818970544129994</v>
       </c>
       <c r="F8">
-        <v>0.063815113234979959</v>
+        <v>0.24819246465745282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>0.21023153764634617</v>
+        <v>0.060591238877612738</v>
       </c>
       <c r="C9">
-        <v>0.060549763732768991</v>
+        <v>0.080504272707437319</v>
       </c>
       <c r="D9">
-        <v>0.062234695332453835</v>
+        <v>0.062121637514623219</v>
       </c>
       <c r="E9">
-        <v>0.080521034311414386</v>
+        <v>0.054004743824461375</v>
       </c>
       <c r="F9">
-        <v>0.05400152436496803</v>
+        <v>0.21030568450808967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10">
-        <v>0.18538652638838027</v>
+        <v>0.05494993112366435</v>
       </c>
       <c r="C10">
-        <v>0.054913232991841421</v>
+        <v>0.071739681839358041</v>
       </c>
       <c r="D10">
-        <v>0.055034957442248011</v>
+        <v>0.054932642964118303</v>
       </c>
       <c r="E10">
-        <v>0.071755215812070658</v>
+        <v>0.053194249410146513</v>
       </c>
       <c r="F10">
-        <v>0.053191347024511872</v>
+        <v>0.18545327675387291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11">
-        <v>0.12106397883776508</v>
+        <v>0.037988234305056393</v>
       </c>
       <c r="C11">
-        <v>0.037965040786505762</v>
+        <v>0.048541493702774156</v>
       </c>
       <c r="D11">
-        <v>0.036244403459622238</v>
+        <v>0.036173626466314654</v>
       </c>
       <c r="E11">
-        <v>0.048553339651766017</v>
+        <v>0.053151783912718957</v>
       </c>
       <c r="F11">
-        <v>0.053150023316827347</v>
+        <v>0.12111038234701564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12">
-        <v>0.14424877972433178</v>
+        <v>0.044322397689648546</v>
       </c>
       <c r="C12">
-        <v>0.04429532665772843</v>
+        <v>0.057254326187652228</v>
       </c>
       <c r="D12">
-        <v>0.04230375354280938</v>
+        <v>0.042222375832478412</v>
       </c>
       <c r="E12">
-        <v>0.057267065000472107</v>
+        <v>0.044634838942248151</v>
       </c>
       <c r="F12">
-        <v>0.044632526060344117</v>
+        <v>0.14430262737135302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B13">
-        <v>0.068287676974282299</v>
+        <v>0.022862521691089596</v>
       </c>
       <c r="C13">
-        <v>0.022850555318106869</v>
+        <v>0.030104179600642052</v>
       </c>
       <c r="D13">
-        <v>0.019962548852051173</v>
+        <v>0.019920118292951251</v>
       </c>
       <c r="E13">
-        <v>0.030111877693605058</v>
+        <v>0.035095789436363371</v>
       </c>
       <c r="F13">
-        <v>0.035094688540225766</v>
+        <v>0.068316076184764221</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14">
-        <v>0.10661921221763941</v>
+        <v>0.033572557967800183</v>
       </c>
       <c r="C14">
-        <v>0.033552978990887647</v>
+        <v>0.044586693910456755</v>
       </c>
       <c r="D14">
-        <v>0.030894099086752565</v>
+        <v>0.030831905822205838</v>
       </c>
       <c r="E14">
-        <v>0.044596948776873251</v>
+        <v>0.039283403954555346</v>
       </c>
       <c r="F14">
-        <v>0.039281643883124717</v>
+        <v>0.1066604855768729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B15">
-        <v>0.14599143939244355</v>
+        <v>0.044748066927231885</v>
       </c>
       <c r="C15">
-        <v>0.044719826150022318</v>
+        <v>0.057931905826705155</v>
       </c>
       <c r="D15">
-        <v>0.043208346078796735</v>
+        <v>0.043125482038844351</v>
       </c>
       <c r="E15">
-        <v>0.05794488813319127</v>
+        <v>0.046387488908882203</v>
       </c>
       <c r="F15">
-        <v>0.046385120977151154</v>
+        <v>0.1460457303648485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16">
-        <v>0.27764175094374582</v>
+        <v>0.075822141634603643</v>
       </c>
       <c r="C16">
-        <v>0.07576841880098438</v>
+        <v>0.10407132956204762</v>
       </c>
       <c r="D16">
-        <v>0.081755419805329646</v>
+        <v>0.081612670948090577</v>
       </c>
       <c r="E16">
-        <v>0.1040931029436232</v>
+        <v>0.070193997151325196</v>
       </c>
       <c r="F16">
-        <v>0.070189602793805331</v>
+        <v>0.27773724697347502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B17">
-        <v>0.17015648267299063</v>
+        <v>0.051340296969430217</v>
       </c>
       <c r="C17">
-        <v>0.051306201537631414</v>
+        <v>0.067640627094193287</v>
       </c>
       <c r="D17">
-        <v>0.050296410843591925</v>
+        <v>0.050200294897392736</v>
       </c>
       <c r="E17">
-        <v>0.067655396281201693</v>
+        <v>0.051580076540816693</v>
       </c>
       <c r="F17">
-        <v>0.051577359567507385</v>
+        <v>0.17021865802397357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18">
-        <v>0.29184252331494182</v>
+        <v>0.078771696486540643</v>
       </c>
       <c r="C18">
-        <v>0.078713405422377314</v>
+        <v>0.10971633563723066</v>
       </c>
       <c r="D18">
-        <v>0.08642033555569037</v>
+        <v>0.086270312382485684</v>
       </c>
       <c r="E18">
-        <v>0.10973885084027553</v>
+        <v>0.073739927412261735</v>
       </c>
       <c r="F18">
-        <v>0.073735503370403896</v>
+        <v>0.29194164166568543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B19">
-        <v>0.30447799632069694</v>
+        <v>0.080801077546283254</v>
       </c>
       <c r="C19">
-        <v>0.080739199710351955</v>
+        <v>0.11182498659345819</v>
       </c>
       <c r="D19">
-        <v>0.09142752399688521</v>
+        <v>0.091273300138393326</v>
       </c>
       <c r="E19">
-        <v>0.11184809410945727</v>
+        <v>0.07499039279980127</v>
       </c>
       <c r="F19">
-        <v>0.074985741393323591</v>
+        <v>0.30457969975690991</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B20">
-        <v>0.31139756047600387</v>
+        <v>0.082137421261643292</v>
       </c>
       <c r="C20">
-        <v>0.082074071127379078</v>
+        <v>0.11504067047370105</v>
       </c>
       <c r="D20">
-        <v>0.092921942835214114</v>
+        <v>0.092763911410761263</v>
       </c>
       <c r="E20">
-        <v>0.11506471801963443</v>
+        <v>0.085347170791266372</v>
       </c>
       <c r="F20">
-        <v>0.085342628216948421</v>
+        <v>0.31150164933745922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B21">
-        <v>0.28810625033603021</v>
+        <v>0.080294851324324318</v>
       </c>
       <c r="C21">
-        <v>0.080237138993486168</v>
+        <v>0.10763579344729776</v>
       </c>
       <c r="D21">
-        <v>0.085549465864011243</v>
+        <v>0.085398665290441295</v>
       </c>
       <c r="E21">
-        <v>0.10765805665119869</v>
+        <v>0.070306256788037549</v>
       </c>
       <c r="F21">
-        <v>0.070301745419203865</v>
+        <v>0.2882051705200131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B22">
-        <v>0.26355015106349494</v>
+        <v>0.075413231369493031</v>
       </c>
       <c r="C22">
-        <v>0.075359863400183871</v>
+        <v>0.10003017749252373</v>
       </c>
       <c r="D22">
-        <v>0.078685370778458177</v>
+        <v>0.078544141115780564</v>
       </c>
       <c r="E22">
-        <v>0.10005106212263364</v>
+        <v>0.064756886424440288</v>
       </c>
       <c r="F22">
-        <v>0.064752730751780452</v>
+        <v>0.26364205778378358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B23">
-        <v>0.22124395611630979</v>
+        <v>0.065729027715731733</v>
       </c>
       <c r="C23">
-        <v>0.065684298951117215</v>
+        <v>0.086243449373530609</v>
       </c>
       <c r="D23">
-        <v>0.066118931609071591</v>
+        <v>0.065996264679725331</v>
       </c>
       <c r="E23">
-        <v>0.086261507694178882</v>
+        <v>0.057343978136522762</v>
       </c>
       <c r="F23">
-        <v>0.057340448149556654</v>
+        <v>0.22132324732422917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B24">
-        <v>0.17100157425559778</v>
+        <v>0.052589986710606447</v>
       </c>
       <c r="C24">
-        <v>0.052556463180150718</v>
+        <v>0.067308451744272219</v>
       </c>
       <c r="D24">
-        <v>0.050907272045527613</v>
+        <v>0.050810114514579188</v>
       </c>
       <c r="E24">
-        <v>0.067323386915542988</v>
+        <v>0.053492532957547634</v>
       </c>
       <c r="F24">
-        <v>0.053489839433797232</v>
+        <v>0.1710647984145266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B25">
-        <v>0.18246787782455709</v>
+        <v>0.055506721571113901</v>
       </c>
       <c r="C25">
-        <v>0.055470392684190788</v>
+        <v>0.071291023669953768</v>
       </c>
       <c r="D25">
-        <v>0.054313296545655823</v>
+        <v>0.054210303433926757</v>
       </c>
       <c r="E25">
-        <v>0.071306473238003057</v>
+        <v>0.055161075344266189</v>
       </c>
       <c r="F25">
-        <v>0.055158326390246842</v>
+        <v>0.18253450346975175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B26">
-        <v>0.13700455550806018</v>
+        <v>0.042209325321719289</v>
       </c>
       <c r="C26">
-        <v>0.042183129318707331</v>
+        <v>0.054736818638107393</v>
       </c>
       <c r="D26">
-        <v>0.040036431669237482</v>
+        <v>0.039958323470726753</v>
       </c>
       <c r="E26">
-        <v>0.054749208945162053</v>
+        <v>0.046079134402070662</v>
       </c>
       <c r="F26">
-        <v>0.046077050725739081</v>
+        <v>0.13705581748334833</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B27">
-        <v>0.15382799633260791</v>
+        <v>0.047455852165005127</v>
       </c>
       <c r="C27">
-        <v>0.047426819721193038</v>
+        <v>0.062424974057692213</v>
       </c>
       <c r="D27">
-        <v>0.044940972336691913</v>
+        <v>0.044853285198507425</v>
       </c>
       <c r="E27">
-        <v>0.062438783554742729</v>
+        <v>0.047421965879998647</v>
       </c>
       <c r="F27">
-        <v>0.047419318528080741</v>
+        <v>0.15388583645774301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B28">
-        <v>0.064415752953747449</v>
+        <v>0.02142188848889787</v>
       </c>
       <c r="C28">
-        <v>0.021411660367439696</v>
+        <v>0.027572638866863751</v>
       </c>
       <c r="D28">
-        <v>0.018367746918927303</v>
+        <v>0.018328745066830323</v>
       </c>
       <c r="E28">
-        <v>0.027580104477171817</v>
+        <v>0.035498851054278871</v>
       </c>
       <c r="F28">
-        <v>0.035497874957844275</v>
+        <v>0.064442685718851742</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B29">
-        <v>0.10866224272123301</v>
+        <v>0.034551164291822596</v>
       </c>
       <c r="C29">
-        <v>0.034531250532135391</v>
+        <v>0.04488113538595323</v>
       </c>
       <c r="D29">
-        <v>0.031526838337931497</v>
+        <v>0.031462972211162864</v>
       </c>
       <c r="E29">
-        <v>0.044891743872151578</v>
+        <v>0.044277568382788866</v>
       </c>
       <c r="F29">
-        <v>0.044275970300001168</v>
+        <v>0.10870454193981252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B30">
-        <v>0.096794958948386842</v>
+        <v>0.030233517112064665</v>
       </c>
       <c r="C30">
-        <v>0.03021688663827788</v>
+        <v>0.04050677357633814</v>
       </c>
       <c r="D30">
-        <v>0.02714265811247266</v>
+        <v>0.027086975001639608</v>
       </c>
       <c r="E30">
-        <v>0.040516537597034656</v>
+        <v>0.03767435857885694</v>
       </c>
       <c r="F30">
-        <v>0.037672750444158548</v>
+        <v>0.096832856797294975</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -3547,31 +3661,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -3579,19 +3693,19 @@
         <v>255</v>
       </c>
       <c r="B2">
-        <v>0.33784730402342072</v>
+        <v>0.27384426809371787</v>
       </c>
       <c r="C2">
-        <v>0.27391159550988142</v>
+        <v>0.33514157071245526</v>
       </c>
       <c r="D2">
-        <v>0.29411089370289489</v>
+        <v>0.29406744342741165</v>
       </c>
       <c r="E2">
-        <v>0.33515157215926999</v>
+        <v>0.23871602977250059</v>
       </c>
       <c r="F2">
-        <v>0.23870599684222063</v>
+        <v>0.3378677934531174</v>
       </c>
     </row>
     <row r="3">
@@ -3599,19 +3713,19 @@
         <v>260</v>
       </c>
       <c r="B3">
-        <v>0.30195713381559147</v>
+        <v>0.29631135831060079</v>
       </c>
       <c r="C3">
-        <v>0.29634884372830372</v>
+        <v>0.29070094614988118</v>
       </c>
       <c r="D3">
-        <v>0.2824156144975471</v>
+        <v>0.2823073503460598</v>
       </c>
       <c r="E3">
-        <v>0.29071131311629972</v>
+        <v>0.2708180670951385</v>
       </c>
       <c r="F3">
-        <v>0.27081313699487797</v>
+        <v>0.30197609620255922</v>
       </c>
     </row>
     <row r="4">
@@ -3619,19 +3733,19 @@
         <v>265</v>
       </c>
       <c r="B4">
-        <v>0.26125225734493601</v>
+        <v>0.31484184039480995</v>
       </c>
       <c r="C4">
-        <v>0.31487727907279156</v>
+        <v>0.25668287089308317</v>
       </c>
       <c r="D4">
-        <v>0.26503222923831343</v>
+        <v>0.26486173924156725</v>
       </c>
       <c r="E4">
-        <v>0.25669902722628651</v>
+        <v>0.3100271693877274</v>
       </c>
       <c r="F4">
-        <v>0.31002478401537065</v>
+        <v>0.26127749652576326</v>
       </c>
     </row>
     <row r="5">
@@ -3639,19 +3753,19 @@
         <v>270</v>
       </c>
       <c r="B5">
-        <v>0.22768826201856293</v>
+        <v>0.31112940595522848</v>
       </c>
       <c r="C5">
-        <v>0.31115817810207297</v>
+        <v>0.23612135837111914</v>
       </c>
       <c r="D5">
-        <v>0.24797660021221898</v>
+        <v>0.24777534070204107</v>
       </c>
       <c r="E5">
-        <v>0.23614026989566334</v>
+        <v>0.3516274473182377</v>
       </c>
       <c r="F5">
-        <v>0.35162850927616746</v>
+        <v>0.22771704758529818</v>
       </c>
     </row>
     <row r="6">
@@ -3659,19 +3773,19 @@
         <v>275</v>
       </c>
       <c r="B6">
-        <v>0.20345771868744367</v>
+        <v>0.28251100773238741</v>
       </c>
       <c r="C6">
-        <v>0.28253240971316512</v>
+        <v>0.22526688418400453</v>
       </c>
       <c r="D6">
-        <v>0.23336406111822436</v>
+        <v>0.23317809596844466</v>
       </c>
       <c r="E6">
-        <v>0.22528698920441617</v>
+        <v>0.38966671716995482</v>
       </c>
       <c r="F6">
-        <v>0.38967114120815333</v>
+        <v>0.20348703189312842</v>
       </c>
     </row>
     <row r="7">
@@ -3679,19 +3793,19 @@
         <v>280</v>
       </c>
       <c r="B7">
-        <v>0.19032116303113511</v>
+        <v>0.23936160563556827</v>
       </c>
       <c r="C7">
-        <v>0.23937733049977647</v>
+        <v>0.22607299499902647</v>
       </c>
       <c r="D7">
-        <v>0.21854942355071946</v>
+        <v>0.21840401267959714</v>
       </c>
       <c r="E7">
-        <v>0.22609157090569443</v>
+        <v>0.40580854612746564</v>
       </c>
       <c r="F7">
-        <v>0.40581505697049841</v>
+        <v>0.19034854582361718</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3813,19 @@
         <v>285</v>
       </c>
       <c r="B8">
-        <v>0.18698380368032383</v>
+        <v>0.19524818227070262</v>
       </c>
       <c r="C8">
-        <v>0.19526821329113975</v>
+        <v>0.23671618619016283</v>
       </c>
       <c r="D8">
-        <v>0.20568446890005943</v>
+        <v>0.205591197879128</v>
       </c>
       <c r="E8">
-        <v>0.23673201010074019</v>
+        <v>0.38939469533227405</v>
       </c>
       <c r="F8">
-        <v>0.38940076914979693</v>
+        <v>0.18700951654262174</v>
       </c>
     </row>
     <row r="9">
@@ -3719,19 +3833,19 @@
         <v>290</v>
       </c>
       <c r="B9">
-        <v>0.18654506242393082</v>
+        <v>0.15125058737640895</v>
       </c>
       <c r="C9">
-        <v>0.15128520071139795</v>
+        <v>0.25305542556369409</v>
       </c>
       <c r="D9">
-        <v>0.18974403576420312</v>
+        <v>0.18970476027060898</v>
       </c>
       <c r="E9">
-        <v>0.25306713673346148</v>
+        <v>0.32161936225231125</v>
       </c>
       <c r="F9">
-        <v>0.32162031456350237</v>
+        <v>0.1865701969727179</v>
       </c>
     </row>
     <row r="10">
@@ -3739,19 +3853,19 @@
         <v>295</v>
       </c>
       <c r="B10">
-        <v>0.19025971029895605</v>
+        <v>0.10492198799637069</v>
       </c>
       <c r="C10">
-        <v>0.10495920475274546</v>
+        <v>0.26380679555740844</v>
       </c>
       <c r="D10">
-        <v>0.17778939022403972</v>
+        <v>0.1778170865577893</v>
       </c>
       <c r="E10">
-        <v>0.26381055811150378</v>
+        <v>0.22422419659061119</v>
       </c>
       <c r="F10">
-        <v>0.22422010798867248</v>
+        <v>0.19027955701715824</v>
       </c>
     </row>
     <row r="11">
@@ -3759,19 +3873,19 @@
         <v>300</v>
       </c>
       <c r="B11">
-        <v>0.19821802059067753</v>
+        <v>0.061275313898984086</v>
       </c>
       <c r="C11">
-        <v>0.061299643774559182</v>
+        <v>0.26705109162034574</v>
       </c>
       <c r="D11">
-        <v>0.1718601812147372</v>
+        <v>0.17195791434479613</v>
       </c>
       <c r="E11">
-        <v>0.26704518855662945</v>
+        <v>0.14061706185597775</v>
       </c>
       <c r="F11">
-        <v>0.14061079989244191</v>
+        <v>0.19822817114606592</v>
       </c>
     </row>
     <row r="12">
@@ -3779,19 +3893,19 @@
         <v>305</v>
       </c>
       <c r="B12">
-        <v>0.20664427400481222</v>
+        <v>0.026755563814924482</v>
       </c>
       <c r="C12">
-        <v>0.026765838732917185</v>
+        <v>0.26359791959158341</v>
       </c>
       <c r="D12">
-        <v>0.16770906516284415</v>
+        <v>0.16786567457497825</v>
       </c>
       <c r="E12">
-        <v>0.26358484812913824</v>
+        <v>0.08232665759421999</v>
       </c>
       <c r="F12">
-        <v>0.082317230173789585</v>
+        <v>0.20664469860436663</v>
       </c>
     </row>
     <row r="13">
@@ -3799,19 +3913,19 @@
         <v>310</v>
       </c>
       <c r="B13">
-        <v>0.2120705865095496</v>
+        <v>0.0064807627353530095</v>
       </c>
       <c r="C13">
-        <v>0.0064792494350860881</v>
+        <v>0.25407802945994001</v>
       </c>
       <c r="D13">
-        <v>0.16405570303359657</v>
+        <v>0.16424923327861821</v>
       </c>
       <c r="E13">
-        <v>0.25405913165202981</v>
+        <v>0.038092271284063117</v>
       </c>
       <c r="F13">
-        <v>0.03808394952651404</v>
+        <v>0.21206308876824223</v>
       </c>
     </row>
     <row r="14">
@@ -3819,19 +3933,19 @@
         <v>315</v>
       </c>
       <c r="B14">
-        <v>0.21224542839379096</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.23641331544250677</v>
       </c>
       <c r="D14">
-        <v>0.1593260643564936</v>
+        <v>0.15953769172603632</v>
       </c>
       <c r="E14">
-        <v>0.23639408341503371</v>
+        <v>0.0068707049040559144</v>
       </c>
       <c r="F14">
-        <v>0.0068632853880721883</v>
+        <v>0.21223458545145671</v>
       </c>
     </row>
     <row r="15">
@@ -3839,19 +3953,19 @@
         <v>320</v>
       </c>
       <c r="B15">
-        <v>0.21049223804440223</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.21178375707839567</v>
       </c>
       <c r="D15">
-        <v>0.15674679851624079</v>
+        <v>0.15696900608642947</v>
       </c>
       <c r="E15">
-        <v>0.2117656914159694</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.21047849322750251</v>
       </c>
     </row>
     <row r="16">
@@ -3859,19 +3973,19 @@
         <v>325</v>
       </c>
       <c r="B16">
-        <v>0.20819367693383431</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.18048811930611469</v>
       </c>
       <c r="D16">
-        <v>0.15771909951597127</v>
+        <v>0.15796096009750157</v>
       </c>
       <c r="E16">
-        <v>0.18047575418736184</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.20817706861984309</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3993,19 @@
         <v>330</v>
       </c>
       <c r="B17">
-        <v>0.20540728390127572</v>
+        <v>0.00064156290408085557</v>
       </c>
       <c r="C17">
-        <v>0.00056534154823051895</v>
+        <v>0.14983432896839904</v>
       </c>
       <c r="D17">
-        <v>0.16137730574190459</v>
+        <v>0.16160570638393615</v>
       </c>
       <c r="E17">
-        <v>0.14980652236611269</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.20537093116350524</v>
       </c>
     </row>
     <row r="18">
@@ -3899,19 +4013,19 @@
         <v>335</v>
       </c>
       <c r="B18">
-        <v>0.19799122351852827</v>
+        <v>0.016708541584184878</v>
       </c>
       <c r="C18">
-        <v>0.016630551639903762</v>
+        <v>0.12296944140082164</v>
       </c>
       <c r="D18">
-        <v>0.15966130591693234</v>
+        <v>0.15987117379583168</v>
       </c>
       <c r="E18">
-        <v>0.1229453894312082</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.19795421837493721</v>
       </c>
     </row>
     <row r="19">
@@ -3919,19 +4033,19 @@
         <v>340</v>
       </c>
       <c r="B19">
-        <v>0.18785904766332173</v>
+        <v>0.033497353258743784</v>
       </c>
       <c r="C19">
-        <v>0.033413982588184107</v>
+        <v>0.093733427636605401</v>
       </c>
       <c r="D19">
-        <v>0.15785646786107937</v>
+        <v>0.15804494644936359</v>
       </c>
       <c r="E19">
-        <v>0.093712294174040006</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.18782096335099985</v>
       </c>
     </row>
     <row r="20">
@@ -3939,19 +4053,19 @@
         <v>345</v>
       </c>
       <c r="B20">
-        <v>0.17619221722486583</v>
+        <v>0.048858880844319691</v>
       </c>
       <c r="C20">
-        <v>0.0487638919904229</v>
+        <v>0.062701931758983587</v>
       </c>
       <c r="D20">
-        <v>0.15726622286536218</v>
+        <v>0.15743543058208159</v>
       </c>
       <c r="E20">
-        <v>0.062683431264171488</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.17615184428927944</v>
       </c>
     </row>
     <row r="21">
@@ -3959,19 +4073,19 @@
         <v>350</v>
       </c>
       <c r="B21">
-        <v>0.16162493268721972</v>
+        <v>0.065341116074268138</v>
       </c>
       <c r="C21">
-        <v>0.065231397066306873</v>
+        <v>0.031091966636608327</v>
       </c>
       <c r="D21">
-        <v>0.15628991482958426</v>
+        <v>0.15643453327883222</v>
       </c>
       <c r="E21">
-        <v>0.031073525647173285</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.16158224669021679</v>
       </c>
     </row>
     <row r="22">
@@ -3979,19 +4093,19 @@
         <v>355</v>
       </c>
       <c r="B22">
-        <v>0.14428127135768576</v>
+        <v>0.090139103797222744</v>
       </c>
       <c r="C22">
-        <v>0.090033146072461823</v>
+        <v>0.0090576786494985673</v>
       </c>
       <c r="D22">
-        <v>0.15177631926440577</v>
+        <v>0.15187737551801811</v>
       </c>
       <c r="E22">
-        <v>0.0090416136408712072</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.1442426613985574</v>
       </c>
     </row>
     <row r="23">
@@ -3999,19 +4113,19 @@
         <v>360</v>
       </c>
       <c r="B23">
-        <v>0.12250554275397353</v>
+        <v>0.13343340777731863</v>
       </c>
       <c r="C23">
-        <v>0.13337397222523853</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.13937148134463911</v>
+        <v>0.1393946540959862</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.12248420350061293</v>
       </c>
     </row>
     <row r="24">
@@ -4019,19 +4133,19 @@
         <v>365</v>
       </c>
       <c r="B24">
-        <v>0.098444465089494462</v>
+        <v>0.17765183180617986</v>
       </c>
       <c r="C24">
-        <v>0.17762141996269398</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.12418728549853504</v>
+        <v>0.12411110083282301</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.098436670003945764</v>
       </c>
     </row>
     <row r="25">
@@ -4039,19 +4153,19 @@
         <v>370</v>
       </c>
       <c r="B25">
-        <v>0.076497272192525528</v>
+        <v>0.20560242605917356</v>
       </c>
       <c r="C25">
-        <v>0.20559120017654881</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.11277817088676552</v>
+        <v>0.11263310472328332</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.076500100799182486</v>
       </c>
     </row>
     <row r="26">
@@ -4059,19 +4173,19 @@
         <v>375</v>
       </c>
       <c r="B26">
-        <v>0.058065192189049819</v>
+        <v>0.2191508629641179</v>
       </c>
       <c r="C26">
-        <v>0.21915522477918592</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0.10514675602587709</v>
+        <v>0.10496357363146389</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.05807681014533754</v>
       </c>
     </row>
     <row r="27">
@@ -4079,19 +4193,19 @@
         <v>380</v>
       </c>
       <c r="B27">
-        <v>0.041188639554382567</v>
+        <v>0.22549063714776643</v>
       </c>
       <c r="C27">
-        <v>0.22550709436542041</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0.098558874889966591</v>
+        <v>0.098351049246550012</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.041207476487269287</v>
       </c>
     </row>
     <row r="28">
@@ -4099,19 +4213,19 @@
         <v>385</v>
       </c>
       <c r="B28">
-        <v>0.027546867637355602</v>
+        <v>0.2248713060579447</v>
       </c>
       <c r="C28">
-        <v>0.22489043560672561</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.093978847884375757</v>
+        <v>0.093759688654074316</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.0275692800005344</v>
       </c>
     </row>
     <row r="29">
@@ -4119,19 +4233,19 @@
         <v>390</v>
       </c>
       <c r="B29">
-        <v>0.015949226917061916</v>
+        <v>0.2171956621943566</v>
       </c>
       <c r="C29">
-        <v>0.21721029176803466</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.090662686361824465</v>
+        <v>0.090444459563559176</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.015972451026755916</v>
       </c>
     </row>
     <row r="30">
@@ -4139,19 +4253,19 @@
         <v>395</v>
       </c>
       <c r="B30">
-        <v>0.006461364954896907</v>
+        <v>0.20426524313537239</v>
       </c>
       <c r="C30">
-        <v>0.20426195686288331</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.089353658093031779</v>
+        <v>0.089144160088689389</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.0064817519713175403</v>
       </c>
     </row>
     <row r="31">
@@ -4159,19 +4273,19 @@
         <v>400</v>
       </c>
       <c r="B31">
-        <v>0.0012989381061457074</v>
+        <v>0.1817040730306107</v>
       </c>
       <c r="C31">
-        <v>0.18166784156369567</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.089912094284943747</v>
+        <v>0.089727297994363547</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.0013112935805422059</v>
       </c>
     </row>
     <row r="32">
@@ -4179,13 +4293,13 @@
         <v>405</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.14498276019242495</v>
       </c>
       <c r="C32">
-        <v>0.1449016531709868</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.093903059064205444</v>
+        <v>0.093770059671510392</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4199,13 +4313,13 @@
         <v>410</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.1138924196555096</v>
       </c>
       <c r="C33">
-        <v>0.11381428684948468</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.096077774682212416</v>
+        <v>0.096002505439957031</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4219,13 +4333,13 @@
         <v>415</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.086835423533287437</v>
       </c>
       <c r="C34">
-        <v>0.08675917325357034</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.09646314665089567</v>
+        <v>0.096435061670308853</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4239,13 +4353,13 @@
         <v>420</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.064115055787320019</v>
       </c>
       <c r="C35">
-        <v>0.064040229337721299</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.097207192014870575</v>
+        <v>0.097219073462805575</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4259,13 +4373,13 @@
         <v>425</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.043318579660745232</v>
       </c>
       <c r="C36">
-        <v>0.043246326246380612</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.096090286492610491</v>
+        <v>0.096136370386943629</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4279,13 +4393,13 @@
         <v>430</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.02826137866695199</v>
       </c>
       <c r="C37">
-        <v>0.028190732782234391</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.093179249310666915</v>
+        <v>0.093246399821180437</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4299,13 +4413,13 @@
         <v>435</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.012758244671922613</v>
       </c>
       <c r="C38">
-        <v>0.012690294510743725</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.090222678462846193</v>
+        <v>0.090312362832000254</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4322,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.00018398331359720395</v>
       </c>
       <c r="D39">
-        <v>0.085745871326157144</v>
+        <v>0.085889471921081442</v>
       </c>
       <c r="E39">
-        <v>0.00018447446840201318</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4342,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.00043135901948341171</v>
       </c>
       <c r="D40">
-        <v>0.075300320502940873</v>
+        <v>0.075426284266753116</v>
       </c>
       <c r="E40">
-        <v>0.00043163579611785218</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4362,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.0005108052932347669</v>
       </c>
       <c r="D41">
-        <v>0.066885698855370185</v>
+        <v>0.066997060876252915</v>
       </c>
       <c r="E41">
-        <v>0.00051099954716403689</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4378,7 +4492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F183"/>
   <sheetViews>
@@ -4396,22 +4510,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -4425,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00012142988552263728</v>
+        <v>0.00012120888188394697</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.091934577046769092</v>
       </c>
       <c r="F2">
-        <v>0.09194225250579037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4448,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.10709968988013087</v>
       </c>
       <c r="F3">
-        <v>0.10710955296581387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4576,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8.3151781439692933e-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.5067899685651463e-05</v>
+        <v>0.12043130913131109</v>
       </c>
       <c r="F4">
-        <v>0.12043958325514105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4479,19 +4593,19 @@
         <v>305.19999999999999</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00051911518331496152</v>
       </c>
       <c r="C5">
-        <v>0.00051952921275679918</v>
+        <v>0.0024922704932609837</v>
       </c>
       <c r="D5">
-        <v>7.924098921974863e-05</v>
+        <v>7.8853276850956641e-05</v>
       </c>
       <c r="E5">
-        <v>0.0024951042839886409</v>
+        <v>0.11637585206990826</v>
       </c>
       <c r="F5">
-        <v>0.11638142444148976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4499,19 +4613,19 @@
         <v>306.80000000000001</v>
       </c>
       <c r="B6">
-        <v>2.6406727029472474e-06</v>
+        <v>5.6967062477770677e-05</v>
       </c>
       <c r="C6">
-        <v>5.5793424223244294e-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0004153459659545702</v>
+        <v>0.00041469587225634043</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1281801074004463</v>
       </c>
       <c r="F6">
-        <v>0.12819047376822632</v>
+        <v>2.5104616119137284e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4525,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00023750749060932969</v>
+        <v>0.00023726735451635265</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.13627967794343201</v>
       </c>
       <c r="F7">
-        <v>0.13629041139719603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4548,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.14420250600662457</v>
       </c>
       <c r="F8">
-        <v>0.14421509649145128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4559,19 +4673,19 @@
         <v>311.60000000000002</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0015275239729436545</v>
       </c>
       <c r="C9">
-        <v>0.0015307487948340889</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.14968777875873998</v>
       </c>
       <c r="F9">
-        <v>0.14969980113768597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4579,19 +4693,19 @@
         <v>313.19999999999999</v>
       </c>
       <c r="B10">
-        <v>0.00054741122532246298</v>
+        <v>0.00085564177486175254</v>
       </c>
       <c r="C10">
-        <v>0.00085731754809724719</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.15338018078618612</v>
       </c>
       <c r="F10">
-        <v>0.15339238765169308</v>
+        <v>0.00054698457030575329</v>
       </c>
     </row>
     <row r="11">
@@ -4599,19 +4713,19 @@
         <v>314.80000000000001</v>
       </c>
       <c r="B11">
-        <v>0.0001706086147576449</v>
+        <v>0.0012539086881450002</v>
       </c>
       <c r="C11">
-        <v>0.0012562482288098228</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.16139649320690741</v>
       </c>
       <c r="F11">
-        <v>0.1614078753961781</v>
+        <v>0.0001700343047646942</v>
       </c>
     </row>
     <row r="12">
@@ -4619,19 +4733,19 @@
         <v>316.5</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0023367129637589037</v>
       </c>
       <c r="C12">
-        <v>0.0023415863566211667</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.16187555707702844</v>
       </c>
       <c r="F12">
-        <v>0.16188772664704018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4639,19 +4753,19 @@
         <v>318.10000000000002</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.0014565366192447052</v>
       </c>
       <c r="C13">
-        <v>0.0014595557440246678</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.17023677269489287</v>
       </c>
       <c r="F13">
-        <v>0.17025048107038615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4659,19 +4773,19 @@
         <v>319.69999999999999</v>
       </c>
       <c r="B14">
-        <v>0.00051453945628527362</v>
+        <v>0.00063504293714274833</v>
       </c>
       <c r="C14">
-        <v>0.00063614967467723077</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1703660044376562</v>
       </c>
       <c r="F14">
-        <v>0.1703786332324734</v>
+        <v>0.00051380334198776229</v>
       </c>
     </row>
     <row r="15">
@@ -4679,19 +4793,19 @@
         <v>321.30000000000001</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0016282643896823516</v>
       </c>
       <c r="C15">
-        <v>0.001631604201416759</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.17663014184938652</v>
       </c>
       <c r="F15">
-        <v>0.17664412750095596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4699,19 +4813,19 @@
         <v>322.89999999999998</v>
       </c>
       <c r="B16">
-        <v>0.00065329041929824592</v>
+        <v>0.00085363028506485765</v>
       </c>
       <c r="C16">
-        <v>0.00085525366340538948</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.18454920848470696</v>
       </c>
       <c r="F16">
-        <v>0.18456134731465842</v>
+        <v>0.00065220205836016669</v>
       </c>
     </row>
     <row r="17">
@@ -4719,19 +4833,19 @@
         <v>324.5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.6893392432697686e-05</v>
       </c>
       <c r="C17">
-        <v>4.3625846825579138e-05</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.00063241629084807198</v>
+        <v>0.00062940380889195478</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.18645809380833253</v>
       </c>
       <c r="F17">
-        <v>0.18647190585371548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4739,19 +4853,19 @@
         <v>326.19999999999999</v>
       </c>
       <c r="B18">
-        <v>0.00058863453280517855</v>
+        <v>0.0012479540851533977</v>
       </c>
       <c r="C18">
-        <v>0.0012517723194230956</v>
+        <v>0.0041247030634488386</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.004134173170469207</v>
+        <v>0.19150202220983237</v>
       </c>
       <c r="F18">
-        <v>0.19150673718004271</v>
+        <v>0.00058951543122024775</v>
       </c>
     </row>
     <row r="19">
@@ -4759,19 +4873,19 @@
         <v>327.80000000000001</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.00098813734521847928</v>
       </c>
       <c r="C19">
-        <v>0.00099050168600952606</v>
+        <v>0.010494741133854039</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.010501161817302922</v>
+        <v>0.18971493043792623</v>
       </c>
       <c r="F19">
-        <v>0.18971949093078103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4779,19 +4893,19 @@
         <v>329.39999999999998</v>
       </c>
       <c r="B20">
-        <v>0.00018154865201957577</v>
+        <v>0.00064298647037212256</v>
       </c>
       <c r="C20">
-        <v>0.00064489248862716314</v>
+        <v>0.014938641062119907</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.014946766252920332</v>
+        <v>0.19075255654156845</v>
       </c>
       <c r="F20">
-        <v>0.19075566805157562</v>
+        <v>0.00018195223085050772</v>
       </c>
     </row>
     <row r="21">
@@ -4799,19 +4913,19 @@
         <v>331</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.00066233703486986918</v>
       </c>
       <c r="C21">
-        <v>0.00066432860855628029</v>
+        <v>0.01885381352022486</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01885894245969854</v>
+        <v>0.19003629086626866</v>
       </c>
       <c r="F21">
-        <v>0.19004044957061927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4822,16 +4936,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.024716677232335376</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.024721404464944904</v>
+        <v>0.18671421106401354</v>
       </c>
       <c r="F22">
-        <v>0.1867184208306337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4839,19 +4953,19 @@
         <v>334.30000000000001</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.00015697064652840672</v>
       </c>
       <c r="C23">
-        <v>0.00015817571811695366</v>
+        <v>0.032494079341352247</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.032497971597863926</v>
+        <v>0.18371214170973343</v>
       </c>
       <c r="F23">
-        <v>0.18371415950887215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4859,19 +4973,19 @@
         <v>335.89999999999998</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.00014991847819686286</v>
       </c>
       <c r="C24">
-        <v>0.00015099589783069365</v>
+        <v>0.036513921531589062</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.036516842968202769</v>
+        <v>0.18252063421392106</v>
       </c>
       <c r="F24">
-        <v>0.18252292099533657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4882,16 +4996,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.040061443256298818</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.040063969763660244</v>
+        <v>0.17956151649965904</v>
       </c>
       <c r="F25">
-        <v>0.17956421008358139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4902,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.047995804921028118</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.047997262045667018</v>
+        <v>0.17135307075972245</v>
       </c>
       <c r="F26">
-        <v>0.17135452206735199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4922,16 +5036,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.053536381858590956</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.053536826355179916</v>
+        <v>0.17001362901099021</v>
       </c>
       <c r="F27">
-        <v>0.17001488592552902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4942,16 +5056,16 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.060870533930003863</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.060870099050572106</v>
+        <v>0.16356487889463026</v>
       </c>
       <c r="F28">
-        <v>0.16356490901581858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4962,16 +5076,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.065501016963220388</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.065499939309685826</v>
+        <v>0.15694538694814905</v>
       </c>
       <c r="F29">
-        <v>0.15694456905258625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4982,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.071743753442542441</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.071742121336156803</v>
+        <v>0.15579472981917247</v>
       </c>
       <c r="F30">
-        <v>0.1557930471902427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5002,16 +5116,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.080067524060723635</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.080065032337699654</v>
+        <v>0.14735575609747509</v>
       </c>
       <c r="F31">
-        <v>0.14735246788356421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5022,16 +5136,16 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.086950285576686714</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.086946882987105942</v>
+        <v>0.14689043525065354</v>
       </c>
       <c r="F32">
-        <v>0.14688663674559582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5042,16 +5156,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.095024123116193723</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.09502122056652576</v>
+        <v>0.1357777282120548</v>
       </c>
       <c r="F33">
-        <v>0.13577033771642077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5062,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.10558495862173103</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.10558138399144898</v>
+        <v>0.12695144386445409</v>
       </c>
       <c r="F34">
-        <v>0.1269416604141278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5082,16 +5196,16 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.11545278638232034</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.11544853760110196</v>
+        <v>0.12440132056178062</v>
       </c>
       <c r="F35">
-        <v>0.1243898259541831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5102,16 +5216,16 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.12323297308275385</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.12322929074925006</v>
+        <v>0.11739426991265553</v>
       </c>
       <c r="F36">
-        <v>0.11737952970582076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5122,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.13450920043162642</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.13450458480955244</v>
+        <v>0.10872417867930047</v>
       </c>
       <c r="F37">
-        <v>0.10870720073803589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5142,16 +5256,16 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.14383284117976605</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.14382733942493103</v>
+        <v>0.10271491661053789</v>
       </c>
       <c r="F38">
-        <v>0.10269636765046802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5162,16 +5276,16 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.1543956887883296</v>
       </c>
       <c r="D39">
-        <v>3.8399070606385955e-05</v>
+        <v>3.7995419047509791e-05</v>
       </c>
       <c r="E39">
-        <v>0.154390536826849</v>
+        <v>0.099477198015212612</v>
       </c>
       <c r="F39">
-        <v>0.099454651956730394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5179,19 +5293,19 @@
         <v>362</v>
       </c>
       <c r="B40">
-        <v>0.0014708111339283242</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.15813381476317859</v>
       </c>
       <c r="D40">
-        <v>0.00042991990672615386</v>
+        <v>0.00043886343585652248</v>
       </c>
       <c r="E40">
-        <v>0.15811228733839039</v>
+        <v>0.09071473459118562</v>
       </c>
       <c r="F40">
-        <v>0.090696187972622175</v>
+        <v>0.0014623889500085085</v>
       </c>
     </row>
     <row r="41">
@@ -5199,19 +5313,19 @@
         <v>363.60000000000002</v>
       </c>
       <c r="B41">
-        <v>0.0039565926154957526</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.16266582752952929</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.1626482098373904</v>
+        <v>0.086372050267808684</v>
       </c>
       <c r="F41">
-        <v>0.086351156776249396</v>
+        <v>0.003951860199899496</v>
       </c>
     </row>
     <row r="42">
@@ -5219,19 +5333,19 @@
         <v>365.19999999999999</v>
       </c>
       <c r="B42">
-        <v>0.0061910393643286972</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.16754725311537574</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.16752897552588122</v>
+        <v>0.081183047893632718</v>
       </c>
       <c r="F42">
-        <v>0.081162821626547643</v>
+        <v>0.006186043454156547</v>
       </c>
     </row>
     <row r="43">
@@ -5239,19 +5353,19 @@
         <v>366.89999999999998</v>
       </c>
       <c r="B43">
-        <v>0.0096161698569336186</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.16770891761530965</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.1676950966165007</v>
+        <v>0.077684087896152082</v>
       </c>
       <c r="F43">
-        <v>0.077665547354129574</v>
+        <v>0.0096124238937336983</v>
       </c>
     </row>
     <row r="44">
@@ -5259,19 +5373,19 @@
         <v>368.5</v>
       </c>
       <c r="B44">
-        <v>0.013988825738318524</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.16457147217052351</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.16455789273551949</v>
+        <v>0.07177793279615656</v>
       </c>
       <c r="F44">
-        <v>0.071762232195899778</v>
+        <v>0.013984593112830006</v>
       </c>
     </row>
     <row r="45">
@@ -5279,19 +5393,19 @@
         <v>370.10000000000002</v>
       </c>
       <c r="B45">
-        <v>0.015819079966055406</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.1726393846728318</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.17262711617441642</v>
+        <v>0.066743048032257751</v>
       </c>
       <c r="F45">
-        <v>0.06672625152412083</v>
+        <v>0.015815173604436142</v>
       </c>
     </row>
     <row r="46">
@@ -5299,19 +5413,19 @@
         <v>371.80000000000001</v>
       </c>
       <c r="B46">
-        <v>0.020155015552264652</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.17366722863132741</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.17365740487825718</v>
+        <v>0.06198007469727336</v>
       </c>
       <c r="F46">
-        <v>0.061965695827327701</v>
+        <v>0.020151612348830089</v>
       </c>
     </row>
     <row r="47">
@@ -5319,19 +5433,19 @@
         <v>373.39999999999998</v>
       </c>
       <c r="B47">
-        <v>0.025054476577294253</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.1743760991164871</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.17437129812267071</v>
+        <v>0.05856302381344676</v>
       </c>
       <c r="F47">
-        <v>0.05855057010644342</v>
+        <v>0.025052200125334861</v>
       </c>
     </row>
     <row r="48">
@@ -5339,19 +5453,19 @@
         <v>375</v>
       </c>
       <c r="B48">
-        <v>0.028487601557799683</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.17454207638404184</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.17453752625822228</v>
+        <v>0.056696648627204894</v>
       </c>
       <c r="F48">
-        <v>0.05668606782619947</v>
+        <v>0.028484979228644829</v>
       </c>
     </row>
     <row r="49">
@@ -5359,19 +5473,19 @@
         <v>376.69999999999999</v>
       </c>
       <c r="B49">
-        <v>0.032980304971865583</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.1754694444069794</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.17546687340868034</v>
+        <v>0.0530632325844227</v>
       </c>
       <c r="F49">
-        <v>0.053054130068178752</v>
+        <v>0.032977659638765748</v>
       </c>
     </row>
     <row r="50">
@@ -5379,19 +5493,19 @@
         <v>378.30000000000001</v>
       </c>
       <c r="B50">
-        <v>0.037447512364481593</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.17439344936742551</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.17439426862843635</v>
+        <v>0.048618789377583869</v>
       </c>
       <c r="F50">
-        <v>0.048611687722031734</v>
+        <v>0.037445420979524052</v>
       </c>
     </row>
     <row r="51">
@@ -5399,19 +5513,19 @@
         <v>379.89999999999998</v>
       </c>
       <c r="B51">
-        <v>0.041003522893901481</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.17320265106919527</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.17320545776141241</v>
+        <v>0.046944895353139726</v>
       </c>
       <c r="F51">
-        <v>0.046939772181617039</v>
+        <v>0.041001643834962444</v>
       </c>
     </row>
     <row r="52">
@@ -5419,19 +5533,19 @@
         <v>381.60000000000002</v>
       </c>
       <c r="B52">
-        <v>0.045710608896380532</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.17711052159477694</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.17711696849985606</v>
+        <v>0.04789707598904621</v>
       </c>
       <c r="F52">
-        <v>0.047893405728045721</v>
+        <v>0.045709367609017962</v>
       </c>
     </row>
     <row r="53">
@@ -5439,19 +5553,19 @@
         <v>383.19999999999999</v>
       </c>
       <c r="B53">
-        <v>0.050890996587709181</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.17775007053479153</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.17775864179365702</v>
+        <v>0.04179104991207494</v>
       </c>
       <c r="F53">
-        <v>0.041789671337939836</v>
+        <v>0.050889854550385027</v>
       </c>
     </row>
     <row r="54">
@@ -5459,19 +5573,19 @@
         <v>384.89999999999998</v>
       </c>
       <c r="B54">
-        <v>0.055927571456759161</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.17320738215996867</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.17322078966390456</v>
+        <v>0.043615792687744466</v>
       </c>
       <c r="F54">
-        <v>0.043617440259351388</v>
+        <v>0.055927264585576175</v>
       </c>
     </row>
     <row r="55">
@@ -5479,19 +5593,19 @@
         <v>386.5</v>
       </c>
       <c r="B55">
-        <v>0.059497853038677127</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.17197650362700906</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.17198800709413367</v>
+        <v>0.039976018970507989</v>
       </c>
       <c r="F55">
-        <v>0.039980056051042975</v>
+        <v>0.059496435140135626</v>
       </c>
     </row>
     <row r="56">
@@ -5499,19 +5613,19 @@
         <v>388.10000000000002</v>
       </c>
       <c r="B56">
-        <v>0.064205359772971912</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.16890277991996483</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.16891809072287781</v>
+        <v>0.040181971700464419</v>
       </c>
       <c r="F56">
-        <v>0.040188609845493745</v>
+        <v>0.064204508768776064</v>
       </c>
     </row>
     <row r="57">
@@ -5519,19 +5633,19 @@
         <v>389.80000000000001</v>
       </c>
       <c r="B57">
-        <v>0.069083635075596006</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.16318631620602778</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.16320510570467583</v>
+        <v>0.03826992379437958</v>
       </c>
       <c r="F57">
-        <v>0.038280119993930294</v>
+        <v>0.069083307329666027</v>
       </c>
     </row>
     <row r="58">
@@ -5539,19 +5653,19 @@
         <v>391.39999999999998</v>
       </c>
       <c r="B58">
-        <v>0.073597850927945463</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.16129408304777126</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.16131322962034045</v>
+        <v>0.038521683154274511</v>
       </c>
       <c r="F58">
-        <v>0.03853464479784055</v>
+        <v>0.073596968351463107</v>
       </c>
     </row>
     <row r="59">
@@ -5559,19 +5673,19 @@
         <v>393.10000000000002</v>
       </c>
       <c r="B59">
-        <v>0.077597243514479469</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.15720195214263125</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.15722084495209379</v>
+        <v>0.035623779047778047</v>
       </c>
       <c r="F59">
-        <v>0.035639666502885074</v>
+        <v>0.077595686366178293</v>
       </c>
     </row>
     <row r="60">
@@ -5579,19 +5693,19 @@
         <v>394.69999999999999</v>
       </c>
       <c r="B60">
-        <v>0.083841246939190026</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.15281102406705213</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.15283475648402153</v>
+        <v>0.03688491919355804</v>
       </c>
       <c r="F60">
-        <v>0.036904439391339486</v>
+        <v>0.083840366858917423</v>
       </c>
     </row>
     <row r="61">
@@ -5599,19 +5713,19 @@
         <v>396.39999999999998</v>
       </c>
       <c r="B61">
-        <v>0.089341079861648021</v>
+        <v>0.0020293891833601933</v>
       </c>
       <c r="C61">
-        <v>0.0020691086451397971</v>
+        <v>0.14759562293228345</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.14765095698136754</v>
+        <v>0.039389453764100947</v>
       </c>
       <c r="F61">
-        <v>0.039370963591488527</v>
+        <v>0.089351093337886156</v>
       </c>
     </row>
     <row r="62">
@@ -5619,19 +5733,19 @@
         <v>398</v>
       </c>
       <c r="B62">
-        <v>0.094774293834650969</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.13795218347469562</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.13798124336473042</v>
+        <v>0.037471216714230503</v>
       </c>
       <c r="F62">
-        <v>0.03749952461328835</v>
+        <v>0.094773628353992972</v>
       </c>
     </row>
     <row r="63">
@@ -5639,19 +5753,19 @@
         <v>399.69999999999999</v>
       </c>
       <c r="B63">
-        <v>0.09958172159976901</v>
+        <v>0.0020965125677993766</v>
       </c>
       <c r="C63">
-        <v>0.002139525754635802</v>
+        <v>0.13123048291376702</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.13129460017262953</v>
+        <v>0.039066067728578895</v>
       </c>
       <c r="F63">
-        <v>0.039052198273714034</v>
+        <v>0.099593210188878262</v>
       </c>
     </row>
     <row r="64">
@@ -5659,19 +5773,19 @@
         <v>401.30000000000001</v>
       </c>
       <c r="B64">
-        <v>0.10305304843973383</v>
+        <v>0.0061740515747542605</v>
       </c>
       <c r="C64">
-        <v>0.0062262533034899425</v>
+        <v>0.12960770650897083</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.12967385399397913</v>
+        <v>0.035404265550380752</v>
       </c>
       <c r="F64">
-        <v>0.035388284716712834</v>
+        <v>0.10306480256682823</v>
       </c>
     </row>
     <row r="65">
@@ -5679,19 +5793,19 @@
         <v>402.89999999999998</v>
       </c>
       <c r="B65">
-        <v>0.10794224475795995</v>
+        <v>0.010496288447683355</v>
       </c>
       <c r="C65">
-        <v>0.010557135645132521</v>
+        <v>0.12253117528695692</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.12259991294926617</v>
+        <v>0.033502988326111871</v>
       </c>
       <c r="F65">
-        <v>0.033487632347345836</v>
+        <v>0.10795413177990631</v>
       </c>
     </row>
     <row r="66">
@@ -5699,19 +5813,19 @@
         <v>404.60000000000002</v>
       </c>
       <c r="B66">
-        <v>0.11182811408863599</v>
+        <v>0.017272581766269186</v>
       </c>
       <c r="C66">
-        <v>0.017344898860387918</v>
+        <v>0.12141036294001763</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.12147827830566564</v>
+        <v>0.031150300215767267</v>
       </c>
       <c r="F66">
-        <v>0.031134843660940711</v>
+        <v>0.11183918779287959</v>
       </c>
     </row>
     <row r="67">
@@ -5719,19 +5833,19 @@
         <v>406.19999999999999</v>
       </c>
       <c r="B67">
-        <v>0.11612118006585005</v>
+        <v>0.018031606259927595</v>
       </c>
       <c r="C67">
-        <v>0.018106406932782704</v>
+        <v>0.11628556536060584</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.11635669326207156</v>
+        <v>0.031913448413263955</v>
       </c>
       <c r="F67">
-        <v>0.031899624136141155</v>
+        <v>0.11613273650330322</v>
       </c>
     </row>
     <row r="68">
@@ -5739,19 +5853,19 @@
         <v>407.89999999999998</v>
       </c>
       <c r="B68">
-        <v>0.12046166121568189</v>
+        <v>0.024101701362393813</v>
       </c>
       <c r="C68">
-        <v>0.02418610314015858</v>
+        <v>0.11001721994325832</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.11008859458277126</v>
+        <v>0.026517470394753641</v>
       </c>
       <c r="F68">
-        <v>0.026505228260485989</v>
+        <v>0.12047258634952453</v>
       </c>
     </row>
     <row r="69">
@@ -5759,19 +5873,19 @@
         <v>409.5</v>
       </c>
       <c r="B69">
-        <v>0.12425015136785572</v>
+        <v>0.026628983525321125</v>
       </c>
       <c r="C69">
-        <v>0.026718131170857501</v>
+        <v>0.10180974929871087</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.10188276024140491</v>
+        <v>0.027828504531015645</v>
       </c>
       <c r="F69">
-        <v>0.027818515730180637</v>
+        <v>0.1242610132604445</v>
       </c>
     </row>
     <row r="70">
@@ -5779,19 +5893,19 @@
         <v>411.19999999999999</v>
       </c>
       <c r="B70">
-        <v>0.12682847625468482</v>
+        <v>0.033605522991610126</v>
       </c>
       <c r="C70">
-        <v>0.033705440289091976</v>
+        <v>0.099935476212351909</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.10000633306743702</v>
+        <v>0.024523623709208141</v>
       </c>
       <c r="F70">
-        <v>0.024513902944010204</v>
+        <v>0.1268381827881645</v>
       </c>
     </row>
     <row r="71">
@@ -5799,19 +5913,19 @@
         <v>412.80000000000001</v>
       </c>
       <c r="B71">
-        <v>0.13088942553931249</v>
+        <v>0.035856480515855209</v>
       </c>
       <c r="C71">
-        <v>0.03595991904702215</v>
+        <v>0.091793565314182868</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.091865855067947005</v>
+        <v>0.024722114874624966</v>
       </c>
       <c r="F71">
-        <v>0.024715681270260952</v>
+        <v>0.13089896595258896</v>
       </c>
     </row>
     <row r="72">
@@ -5819,19 +5933,19 @@
         <v>414.5</v>
       </c>
       <c r="B72">
-        <v>0.13308713192304608</v>
+        <v>0.043417142242329121</v>
       </c>
       <c r="C72">
-        <v>0.043532087455543551</v>
+        <v>0.088993469063774366</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.089062975850232193</v>
+        <v>0.021039066372617016</v>
       </c>
       <c r="F72">
-        <v>0.021033004151032153</v>
+        <v>0.13309534280012908</v>
       </c>
     </row>
     <row r="73">
@@ -5839,19 +5953,19 @@
         <v>416.10000000000002</v>
       </c>
       <c r="B73">
-        <v>0.1369610501862652</v>
+        <v>0.046768425348942128</v>
       </c>
       <c r="C73">
-        <v>0.046888760580198162</v>
+        <v>0.079718959661733438</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.079789910837922445</v>
+        <v>0.022113152230469481</v>
       </c>
       <c r="F73">
-        <v>0.022109908880874399</v>
+        <v>0.13696904445047953</v>
       </c>
     </row>
     <row r="74">
@@ -5859,19 +5973,19 @@
         <v>417.80000000000001</v>
       </c>
       <c r="B74">
-        <v>0.13954047237586106</v>
+        <v>0.052669746904737351</v>
       </c>
       <c r="C74">
-        <v>0.052798644193039861</v>
+        <v>0.073652764908961887</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.073721816884492086</v>
+        <v>0.02019675784244928</v>
       </c>
       <c r="F74">
-        <v>0.020195616200848102</v>
+        <v>0.13954735795939197</v>
       </c>
     </row>
     <row r="75">
@@ -5879,19 +5993,19 @@
         <v>419.39999999999998</v>
       </c>
       <c r="B75">
-        <v>0.14102343520423369</v>
+        <v>0.056563297981070203</v>
       </c>
       <c r="C75">
-        <v>0.056697610660023802</v>
+        <v>0.068880815397006509</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.068948282960651738</v>
+        <v>0.017335496241401654</v>
       </c>
       <c r="F75">
-        <v>0.017335914122236083</v>
+        <v>0.14102949445572158</v>
       </c>
     </row>
     <row r="76">
@@ -5899,19 +6013,19 @@
         <v>421.10000000000002</v>
       </c>
       <c r="B76">
-        <v>0.14409172447489976</v>
+        <v>0.060179288407710328</v>
       </c>
       <c r="C76">
-        <v>0.060318967797992631</v>
+        <v>0.061830310010462929</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.061898518537852075</v>
+        <v>0.01739285880749725</v>
       </c>
       <c r="F76">
-        <v>0.01739566087310394</v>
+        <v>0.14409747091261393</v>
       </c>
     </row>
     <row r="77">
@@ -5919,19 +6033,19 @@
         <v>422.69999999999999</v>
       </c>
       <c r="B77">
-        <v>0.14658227766186493</v>
+        <v>0.066852812487542101</v>
       </c>
       <c r="C77">
-        <v>0.067002384240852239</v>
+        <v>0.055282386902786092</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.055348293924041295</v>
+        <v>0.016624209793543787</v>
       </c>
       <c r="F77">
-        <v>0.016628958869864888</v>
+        <v>0.14658677048367152</v>
       </c>
     </row>
     <row r="78">
@@ -5939,19 +6053,19 @@
         <v>424.39999999999998</v>
       </c>
       <c r="B78">
-        <v>0.14828615597556788</v>
+        <v>0.072120952214221698</v>
       </c>
       <c r="C78">
-        <v>0.072278475454350094</v>
+        <v>0.050953335250924686</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.051017864409133584</v>
+        <v>0.01420511055770084</v>
       </c>
       <c r="F78">
-        <v>0.014210594156318139</v>
+        <v>0.14828983096461051</v>
       </c>
     </row>
     <row r="79">
@@ -5959,19 +6073,19 @@
         <v>426</v>
       </c>
       <c r="B79">
-        <v>0.14996996145553729</v>
+        <v>0.077381621967128375</v>
       </c>
       <c r="C79">
-        <v>0.077546730926066482</v>
+        <v>0.045768827072141728</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.045832051137965901</v>
+        <v>0.01365368500851645</v>
       </c>
       <c r="F79">
-        <v>0.013660619744721329</v>
+        <v>0.14997283253526497</v>
       </c>
     </row>
     <row r="80">
@@ -5979,19 +6093,19 @@
         <v>427.69999999999999</v>
       </c>
       <c r="B80">
-        <v>0.15119497744527213</v>
+        <v>0.0809242068197258</v>
       </c>
       <c r="C80">
-        <v>0.081094604338328283</v>
+        <v>0.040436523020527963</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.040498501429370108</v>
+        <v>0.013212233538825599</v>
       </c>
       <c r="F80">
-        <v>0.013220505246540086</v>
+        <v>0.15119717553338108</v>
       </c>
     </row>
     <row r="81">
@@ -5999,19 +6113,19 @@
         <v>429.30000000000001</v>
       </c>
       <c r="B81">
-        <v>0.15174186680025201</v>
+        <v>0.087455769456346033</v>
       </c>
       <c r="C81">
-        <v>0.087634994234266878</v>
+        <v>0.036045691273954225</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.036103692116189308</v>
+        <v>0.0099409704225543842</v>
       </c>
       <c r="F81">
-        <v>0.0099506222344138626</v>
+        <v>0.15174252972689756</v>
       </c>
     </row>
     <row r="82">
@@ -6019,19 +6133,19 @@
         <v>431</v>
       </c>
       <c r="B82">
-        <v>0.15376263809688348</v>
+        <v>0.090137419269234909</v>
       </c>
       <c r="C82">
-        <v>0.090303620843881577</v>
+        <v>0.028594911451719978</v>
       </c>
       <c r="D82">
-        <v>0.0020758059399311707</v>
+        <v>0.0020399532911816259</v>
       </c>
       <c r="E82">
-        <v>0.028657047416012691</v>
+        <v>0.011795476964652355</v>
       </c>
       <c r="F82">
-        <v>0.011806302523081996</v>
+        <v>0.15377472473377937</v>
       </c>
     </row>
     <row r="83">
@@ -6039,19 +6153,19 @@
         <v>432.60000000000002</v>
       </c>
       <c r="B83">
-        <v>0.15512984777683167</v>
+        <v>0.097523414914919782</v>
       </c>
       <c r="C83">
-        <v>0.097718799676158569</v>
+        <v>0.026540995144617427</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.026597352106366007</v>
+        <v>0.011283127905492544</v>
       </c>
       <c r="F83">
-        <v>0.011293910209596506</v>
+        <v>0.15512927199054696</v>
       </c>
     </row>
     <row r="84">
@@ -6059,19 +6173,19 @@
         <v>434.30000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1562004120347433</v>
+        <v>0.10394447587048768</v>
       </c>
       <c r="C84">
-        <v>0.10414922732602312</v>
+        <v>0.024510080743579802</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.024563047439740016</v>
+        <v>0.0074602941840309703</v>
       </c>
       <c r="F84">
-        <v>0.0074714618438067862</v>
+        <v>0.15619848463167091</v>
       </c>
     </row>
     <row r="85">
@@ -6079,19 +6193,19 @@
         <v>436</v>
       </c>
       <c r="B85">
-        <v>0.15698808912462908</v>
+        <v>0.10861429884890088</v>
       </c>
       <c r="C85">
-        <v>0.10880378419351182</v>
+        <v>0.019569366044465946</v>
       </c>
       <c r="D85">
-        <v>0.0011276074181156602</v>
+        <v>0.001076847684552115</v>
       </c>
       <c r="E85">
-        <v>0.019624661480865366</v>
+        <v>0.0088275007250284299</v>
       </c>
       <c r="F85">
-        <v>0.00884079705152724</v>
+        <v>0.15700127584356399</v>
       </c>
     </row>
     <row r="86">
@@ -6099,19 +6213,19 @@
         <v>437.60000000000002</v>
       </c>
       <c r="B86">
-        <v>0.15697312471839381</v>
+        <v>0.11580333221023396</v>
       </c>
       <c r="C86">
-        <v>0.11599715854964063</v>
+        <v>0.018170478544874986</v>
       </c>
       <c r="D86">
-        <v>0.0025302000984181315</v>
+        <v>0.0024726297888873388</v>
       </c>
       <c r="E86">
-        <v>0.018221272182586484</v>
+        <v>0.0059903956145722619</v>
       </c>
       <c r="F86">
-        <v>0.0060038381549117805</v>
+        <v>0.15698676933833544</v>
       </c>
     </row>
     <row r="87">
@@ -6119,19 +6233,19 @@
         <v>439.30000000000001</v>
       </c>
       <c r="B87">
-        <v>0.15688956147045796</v>
+        <v>0.1195563289932028</v>
       </c>
       <c r="C87">
-        <v>0.11975151356346266</v>
+        <v>0.015279018044437228</v>
       </c>
       <c r="D87">
-        <v>0.0043527429249597023</v>
+        <v>0.004295880711466268</v>
       </c>
       <c r="E87">
-        <v>0.01532660076907397</v>
+        <v>0.0061029487037847869</v>
       </c>
       <c r="F87">
-        <v>0.0061168989157820595</v>
+        <v>0.15690201198821049</v>
       </c>
     </row>
     <row r="88">
@@ -6139,19 +6253,19 @@
         <v>440.89999999999998</v>
       </c>
       <c r="B88">
-        <v>0.15621332902792953</v>
+        <v>0.11936467825928995</v>
       </c>
       <c r="C88">
-        <v>0.11954700215657608</v>
+        <v>0.0096592559334145959</v>
       </c>
       <c r="D88">
-        <v>0.0099187045612673941</v>
+        <v>0.0098606557634925204</v>
       </c>
       <c r="E88">
-        <v>0.0097054423637989995</v>
+        <v>0.0043856641993334127</v>
       </c>
       <c r="F88">
-        <v>0.0043992854228084308</v>
+        <v>0.15622617052663626</v>
       </c>
     </row>
     <row r="89">
@@ -6159,19 +6273,19 @@
         <v>442.60000000000002</v>
       </c>
       <c r="B89">
-        <v>0.15377168633655711</v>
+        <v>0.1256535605590253</v>
       </c>
       <c r="C89">
-        <v>0.12583425049761235</v>
+        <v>0.0095012402273476019</v>
       </c>
       <c r="D89">
-        <v>0.013739284720018697</v>
+        <v>0.013677032126602517</v>
       </c>
       <c r="E89">
-        <v>0.0095404127776972814</v>
+        <v>0.0031541198486514975</v>
       </c>
       <c r="F89">
-        <v>0.0031666541704902314</v>
+        <v>0.15378394812290258</v>
       </c>
     </row>
     <row r="90">
@@ -6179,19 +6293,19 @@
         <v>444.19999999999999</v>
       </c>
       <c r="B90">
-        <v>0.15121488666011346</v>
+        <v>0.12529534013687427</v>
       </c>
       <c r="C90">
-        <v>0.12545833410454685</v>
+        <v>0.0062540294374321941</v>
       </c>
       <c r="D90">
-        <v>0.021968136025037315</v>
+        <v>0.021909112747964737</v>
       </c>
       <c r="E90">
-        <v>0.0062889097925399014</v>
+        <v>0.0031579853898251135</v>
       </c>
       <c r="F90">
-        <v>0.0031689476964870547</v>
+        <v>0.15122579994086849</v>
       </c>
     </row>
     <row r="91">
@@ -6199,19 +6313,19 @@
         <v>445.89999999999998</v>
       </c>
       <c r="B91">
-        <v>0.15084673139287946</v>
+        <v>0.12982474511097353</v>
       </c>
       <c r="C91">
-        <v>0.12999589968714254</v>
+        <v>0.0055465907259668714</v>
       </c>
       <c r="D91">
-        <v>0.020312954078047115</v>
+        <v>0.020249698896285098</v>
       </c>
       <c r="E91">
-        <v>0.0055792740965479749</v>
+        <v>0.00044844093745029218</v>
       </c>
       <c r="F91">
-        <v>0.00045971478254023195</v>
+        <v>0.15085794449406453</v>
       </c>
     </row>
     <row r="92">
@@ -6219,19 +6333,19 @@
         <v>447.5</v>
       </c>
       <c r="B92">
-        <v>0.14879745924539073</v>
+        <v>0.13546126820948426</v>
       </c>
       <c r="C92">
-        <v>0.13563598339375638</v>
+        <v>0.0051388507718044115</v>
       </c>
       <c r="D92">
-        <v>0.021921627408719342</v>
+        <v>0.021857227773579502</v>
       </c>
       <c r="E92">
-        <v>0.0051659301943128731</v>
+        <v>0.00044877814009593035</v>
       </c>
       <c r="F92">
-        <v>0.00045940363787202277</v>
+        <v>0.14880744340926527</v>
       </c>
     </row>
     <row r="93">
@@ -6239,19 +6353,19 @@
         <v>449.19999999999999</v>
       </c>
       <c r="B93">
-        <v>0.14599279732620679</v>
+        <v>0.13850283054528487</v>
       </c>
       <c r="C93">
-        <v>0.1386748433870067</v>
+        <v>0.0040994290309991606</v>
       </c>
       <c r="D93">
-        <v>0.025909674556743638</v>
+        <v>0.025843715907078034</v>
       </c>
       <c r="E93">
-        <v>0.0041280128727531505</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.1460035215460066</v>
       </c>
     </row>
     <row r="94">
@@ -6259,19 +6373,19 @@
         <v>450.89999999999998</v>
       </c>
       <c r="B94">
-        <v>0.14257852216668757</v>
+        <v>0.1357214291741754</v>
       </c>
       <c r="C94">
-        <v>0.13586993208742301</v>
+        <v>0.00090265644089696341</v>
       </c>
       <c r="D94">
-        <v>0.03514224381518595</v>
+        <v>0.035081444848659549</v>
       </c>
       <c r="E94">
-        <v>0.00092581109185362173</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.14258735258774372</v>
       </c>
     </row>
     <row r="95">
@@ -6279,19 +6393,19 @@
         <v>452.5</v>
       </c>
       <c r="B95">
-        <v>0.1405982991213314</v>
+        <v>0.13933726575005365</v>
       </c>
       <c r="C95">
-        <v>0.13948547174408085</v>
+        <v>0.0007644567202228416</v>
       </c>
       <c r="D95">
-        <v>0.037109064183515734</v>
+        <v>0.037046937263240882</v>
       </c>
       <c r="E95">
-        <v>0.00078254519586162558</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.14060626797670894</v>
       </c>
     </row>
     <row r="96">
@@ -6299,19 +6413,19 @@
         <v>454.19999999999999</v>
       </c>
       <c r="B96">
-        <v>0.1374435570681567</v>
+        <v>0.14009805410916404</v>
       </c>
       <c r="C96">
-        <v>0.14023364283635273</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.04360509742844719</v>
+        <v>0.043548520185836284</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.13744517943717077</v>
       </c>
     </row>
     <row r="97">
@@ -6319,19 +6433,19 @@
         <v>455.80000000000001</v>
       </c>
       <c r="B97">
-        <v>0.13552818000705971</v>
+        <v>0.14268407639325442</v>
       </c>
       <c r="C97">
-        <v>0.14281735426258252</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0.044980468036288759</v>
+        <v>0.04492002272028376</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.13553101854804658</v>
       </c>
     </row>
     <row r="98">
@@ -6339,19 +6453,19 @@
         <v>457.5</v>
       </c>
       <c r="B98">
-        <v>0.13167778434085647</v>
+        <v>0.14438266983157877</v>
       </c>
       <c r="C98">
-        <v>0.14450292231810238</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0.05164487074959366</v>
+        <v>0.051585819751859913</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.13168130436059297</v>
       </c>
     </row>
     <row r="99">
@@ -6359,19 +6473,19 @@
         <v>459.19999999999999</v>
       </c>
       <c r="B99">
-        <v>0.12900941261234602</v>
+        <v>0.14493071543990041</v>
       </c>
       <c r="C99">
-        <v>0.14504158292079022</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>0.055897252747173519</v>
+        <v>0.055838472340869499</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.12901358553924999</v>
       </c>
     </row>
     <row r="100">
@@ -6379,19 +6493,19 @@
         <v>460.80000000000001</v>
       </c>
       <c r="B100">
-        <v>0.1258722259818468</v>
+        <v>0.1459887557720686</v>
       </c>
       <c r="C100">
-        <v>0.14609328841009062</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0.060306060510527469</v>
+        <v>0.060254500434514968</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.12587517947300109</v>
       </c>
     </row>
     <row r="101">
@@ -6399,19 +6513,19 @@
         <v>462.5</v>
       </c>
       <c r="B101">
-        <v>0.1213458992272613</v>
+        <v>0.14512059471972188</v>
       </c>
       <c r="C101">
-        <v>0.14520696478034437</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0.067201327904732613</v>
+        <v>0.067150161934921251</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.12134991036461328</v>
       </c>
     </row>
     <row r="102">
@@ -6419,19 +6533,19 @@
         <v>464.10000000000002</v>
       </c>
       <c r="B102">
-        <v>0.11940722214814961</v>
+        <v>0.14680615851461143</v>
       </c>
       <c r="C102">
-        <v>0.1468950482666789</v>
+        <v>0.00057659296776140076</v>
       </c>
       <c r="D102">
-        <v>0.067484602814570666</v>
+        <v>0.067438312746469983</v>
       </c>
       <c r="E102">
-        <v>0.00055545148376226136</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.11940339141726265</v>
       </c>
     </row>
     <row r="103">
@@ -6439,19 +6553,19 @@
         <v>465.80000000000001</v>
       </c>
       <c r="B103">
-        <v>0.1158462372801988</v>
+        <v>0.14629059421472415</v>
       </c>
       <c r="C103">
-        <v>0.14637048563626376</v>
+        <v>0.0012804030234823587</v>
       </c>
       <c r="D103">
-        <v>0.071201760601122169</v>
+        <v>0.071160756968383296</v>
       </c>
       <c r="E103">
-        <v>0.0012541108120629561</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.11583994270408597</v>
       </c>
     </row>
     <row r="104">
@@ -6459,19 +6573,19 @@
         <v>467.5</v>
       </c>
       <c r="B104">
-        <v>0.11183461267113412</v>
+        <v>0.14670709428499831</v>
       </c>
       <c r="C104">
-        <v>0.14677668507092714</v>
+        <v>0.0033386231721960315</v>
       </c>
       <c r="D104">
-        <v>0.07545079718878922</v>
+        <v>0.075410532822370077</v>
       </c>
       <c r="E104">
-        <v>0.0033062915724955113</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.11182709808615789</v>
       </c>
     </row>
     <row r="105">
@@ -6479,19 +6593,19 @@
         <v>469.10000000000002</v>
       </c>
       <c r="B105">
-        <v>0.1086491651183536</v>
+        <v>0.14482412018531818</v>
       </c>
       <c r="C105">
-        <v>0.14487907468770503</v>
+        <v>0.0020565531643375701</v>
       </c>
       <c r="D105">
-        <v>0.080405398034649717</v>
+        <v>0.08036529519176365</v>
       </c>
       <c r="E105">
-        <v>0.0020204384474500157</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.1086412879054318</v>
       </c>
     </row>
     <row r="106">
@@ -6499,19 +6613,19 @@
         <v>470.80000000000001</v>
       </c>
       <c r="B106">
-        <v>0.10520946248276544</v>
+        <v>0.14624163022540787</v>
       </c>
       <c r="C106">
-        <v>0.14629194369975379</v>
+        <v>0.0042588677337281645</v>
       </c>
       <c r="D106">
-        <v>0.082901020821793514</v>
+        <v>0.082862464084676471</v>
       </c>
       <c r="E106">
-        <v>0.0042173193390450999</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.10520003371932315</v>
       </c>
     </row>
     <row r="107">
@@ -6519,19 +6633,19 @@
         <v>472.5</v>
       </c>
       <c r="B107">
-        <v>0.10214155709895763</v>
+        <v>0.14405030349272377</v>
       </c>
       <c r="C107">
-        <v>0.14409045796129727</v>
+        <v>0.0036117212910287562</v>
       </c>
       <c r="D107">
-        <v>0.086184083916754237</v>
+        <v>0.086149790670189866</v>
       </c>
       <c r="E107">
-        <v>0.0035667765554596802</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.10213049717329056</v>
       </c>
     </row>
     <row r="108">
@@ -6539,19 +6653,19 @@
         <v>474.10000000000002</v>
       </c>
       <c r="B108">
-        <v>0.099170250891385314</v>
+        <v>0.14376667079148053</v>
       </c>
       <c r="C108">
-        <v>0.14379637585185023</v>
+        <v>0.0048258469375929806</v>
       </c>
       <c r="D108">
-        <v>0.090470923821517016</v>
+        <v>0.090438149130444095</v>
       </c>
       <c r="E108">
-        <v>0.0047762455403630609</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.099158106409696592</v>
       </c>
     </row>
     <row r="109">
@@ -6559,19 +6673,19 @@
         <v>475.80000000000001</v>
       </c>
       <c r="B109">
-        <v>0.09512901030841471</v>
+        <v>0.14250144831082484</v>
       </c>
       <c r="C109">
-        <v>0.14251826948795238</v>
+        <v>0.0065879365369130105</v>
       </c>
       <c r="D109">
-        <v>0.094709167595296906</v>
+        <v>0.094675714309615425</v>
       </c>
       <c r="E109">
-        <v>0.0065332622313912818</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.095116446816154096</v>
       </c>
     </row>
     <row r="110">
@@ -6579,19 +6693,19 @@
         <v>477.5</v>
       </c>
       <c r="B110">
-        <v>0.09097733413091677</v>
+        <v>0.14075947611110104</v>
       </c>
       <c r="C110">
-        <v>0.14076256523550057</v>
+        <v>0.0093442525691133892</v>
       </c>
       <c r="D110">
-        <v>0.099525873712255325</v>
+        <v>0.09949513447120939</v>
       </c>
       <c r="E110">
-        <v>0.0092841943000503777</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.090963388097161743</v>
       </c>
     </row>
     <row r="111">
@@ -6599,19 +6713,19 @@
         <v>479.10000000000002</v>
       </c>
       <c r="B111">
-        <v>0.087961727365033146</v>
+        <v>0.14009073407027994</v>
       </c>
       <c r="C111">
-        <v>0.14009030206530573</v>
+        <v>0.0098039729631614961</v>
       </c>
       <c r="D111">
-        <v>0.10208381107178079</v>
+        <v>0.10205556633751668</v>
       </c>
       <c r="E111">
-        <v>0.0097480538001105364</v>
+        <v>0.00031505780412270185</v>
       </c>
       <c r="F111">
-        <v>0.00030402912579937372</v>
+        <v>0.087948127544881155</v>
       </c>
     </row>
     <row r="112">
@@ -6619,19 +6733,19 @@
         <v>480.80000000000001</v>
       </c>
       <c r="B112">
-        <v>0.08436685409051517</v>
+        <v>0.13691010090354494</v>
       </c>
       <c r="C112">
-        <v>0.1368883088237961</v>
+        <v>0.010475795873237864</v>
       </c>
       <c r="D112">
-        <v>0.10774754661837527</v>
+        <v>0.1077211508169094</v>
       </c>
       <c r="E112">
-        <v>0.010407957152419258</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.084350844959840646</v>
       </c>
     </row>
     <row r="113">
@@ -6639,19 +6753,19 @@
         <v>482.5</v>
       </c>
       <c r="B113">
-        <v>0.081658673175639504</v>
+        <v>0.13705880518592065</v>
       </c>
       <c r="C113">
-        <v>0.13703333986496913</v>
+        <v>0.012275819994842828</v>
       </c>
       <c r="D113">
-        <v>0.10906521834444786</v>
+        <v>0.10903858978142844</v>
       </c>
       <c r="E113">
-        <v>0.01220451962178476</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.081642171982339834</v>
       </c>
     </row>
     <row r="114">
@@ -6659,19 +6773,19 @@
         <v>484.10000000000002</v>
       </c>
       <c r="B114">
-        <v>0.077346375204064316</v>
+        <v>0.13558006734132416</v>
       </c>
       <c r="C114">
-        <v>0.13554137806557695</v>
+        <v>0.015162180488981103</v>
       </c>
       <c r="D114">
-        <v>0.11616281202627224</v>
+        <v>0.11614007717671004</v>
       </c>
       <c r="E114">
-        <v>0.01509471065593268</v>
+        <v>0.00068753551798508112</v>
       </c>
       <c r="F114">
-        <v>0.00067172306568888504</v>
+        <v>0.077330044146546845</v>
       </c>
     </row>
     <row r="115">
@@ -6679,19 +6793,19 @@
         <v>485.80000000000001</v>
       </c>
       <c r="B115">
-        <v>0.078256134319996604</v>
+        <v>0.13813610599029769</v>
       </c>
       <c r="C115">
-        <v>0.13812078575718895</v>
+        <v>0.014847199430533382</v>
       </c>
       <c r="D115">
-        <v>0.10701905836657345</v>
+        <v>0.10699481454944487</v>
       </c>
       <c r="E115">
-        <v>0.014782576415924443</v>
+        <v>0.00021202898781939644</v>
       </c>
       <c r="F115">
-        <v>0.00019768297719181927</v>
+        <v>0.078240224615526779</v>
       </c>
     </row>
     <row r="116">
@@ -6699,19 +6813,19 @@
         <v>487.5</v>
       </c>
       <c r="B116">
-        <v>0.071964955548960846</v>
+        <v>0.13350920184463522</v>
       </c>
       <c r="C116">
-        <v>0.13345334461339178</v>
+        <v>0.018741919299301937</v>
       </c>
       <c r="D116">
-        <v>0.11997036906272447</v>
+        <v>0.11995100751037241</v>
       </c>
       <c r="E116">
-        <v>0.018657404985017691</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.071944671967576104</v>
       </c>
     </row>
     <row r="117">
@@ -6719,19 +6833,19 @@
         <v>489.10000000000002</v>
       </c>
       <c r="B117">
-        <v>0.068404757890143275</v>
+        <v>0.13206804498406233</v>
       </c>
       <c r="C117">
-        <v>0.13200581181543131</v>
+        <v>0.01971167822574145</v>
       </c>
       <c r="D117">
-        <v>0.1244633925902624</v>
+        <v>0.12444646736078202</v>
       </c>
       <c r="E117">
-        <v>0.019635695403777832</v>
+        <v>0.0022878783173962271</v>
       </c>
       <c r="F117">
-        <v>0.0022685078525673343</v>
+        <v>0.068385865234631624</v>
       </c>
     </row>
     <row r="118">
@@ -6739,19 +6853,19 @@
         <v>490.80000000000001</v>
       </c>
       <c r="B118">
-        <v>0.066323663763127164</v>
+        <v>0.12843161230763472</v>
       </c>
       <c r="C118">
-        <v>0.1283596123617724</v>
+        <v>0.018034861605995725</v>
       </c>
       <c r="D118">
-        <v>0.12642190717912002</v>
+        <v>0.12640603631457295</v>
       </c>
       <c r="E118">
-        <v>0.017959200486498291</v>
+        <v>0.0020776077882571895</v>
       </c>
       <c r="F118">
-        <v>0.0020578670179523589</v>
+        <v>0.06630500754861636</v>
       </c>
     </row>
     <row r="119">
@@ -6759,19 +6873,19 @@
         <v>492.5</v>
       </c>
       <c r="B119">
-        <v>0.062759037758228053</v>
+        <v>0.12646069521450767</v>
       </c>
       <c r="C119">
-        <v>0.12637829188242666</v>
+        <v>0.0211133650155408</v>
       </c>
       <c r="D119">
-        <v>0.12996256773553858</v>
+        <v>0.129949568535425</v>
       </c>
       <c r="E119">
-        <v>0.021034469379906415</v>
+        <v>0.0010174693429557114</v>
       </c>
       <c r="F119">
-        <v>0.00099584080718148355</v>
+        <v>0.062739205607967016</v>
       </c>
     </row>
     <row r="120">
@@ -6779,19 +6893,19 @@
         <v>494.10000000000002</v>
       </c>
       <c r="B120">
-        <v>0.059400869584880431</v>
+        <v>0.12551167607818658</v>
       </c>
       <c r="C120">
-        <v>0.12542289768304596</v>
+        <v>0.023148057913980336</v>
       </c>
       <c r="D120">
-        <v>0.1320357635376623</v>
+        <v>0.13202434319825399</v>
       </c>
       <c r="E120">
-        <v>0.023066167497443935</v>
+        <v>0.0009572453702048645</v>
       </c>
       <c r="F120">
-        <v>0.00093438082735593285</v>
+        <v>0.059380191370934012</v>
       </c>
     </row>
     <row r="121">
@@ -6799,19 +6913,19 @@
         <v>495.80000000000001</v>
       </c>
       <c r="B121">
-        <v>0.056845666625329909</v>
+        <v>0.12131928945229838</v>
       </c>
       <c r="C121">
-        <v>0.12121994733944476</v>
+        <v>0.023438957158349302</v>
       </c>
       <c r="D121">
-        <v>0.13415613016688846</v>
+        <v>0.13414663280789851</v>
       </c>
       <c r="E121">
-        <v>0.0233570184456223</v>
+        <v>0.0030236837369873068</v>
       </c>
       <c r="F121">
-        <v>0.0030000827561313718</v>
+        <v>0.0568249952975926</v>
       </c>
     </row>
     <row r="122">
@@ -6819,19 +6933,19 @@
         <v>497.5</v>
       </c>
       <c r="B122">
-        <v>0.053196169613000756</v>
+        <v>0.11832273991053238</v>
       </c>
       <c r="C122">
-        <v>0.11821972377713508</v>
+        <v>0.02418807069012625</v>
       </c>
       <c r="D122">
-        <v>0.13393125346359011</v>
+        <v>0.133924638361298</v>
       </c>
       <c r="E122">
-        <v>0.024105139026046319</v>
+        <v>0.0038082565505964919</v>
       </c>
       <c r="F122">
-        <v>0.0037838584459899565</v>
+        <v>0.053174802284230466</v>
       </c>
     </row>
     <row r="123">
@@ -6839,19 +6953,19 @@
         <v>499.10000000000002</v>
       </c>
       <c r="B123">
-        <v>0.049384768139518587</v>
+        <v>0.11324950520185352</v>
       </c>
       <c r="C123">
-        <v>0.11313888244683111</v>
+        <v>0.024922477653052142</v>
       </c>
       <c r="D123">
-        <v>0.13339599537766919</v>
+        <v>0.13338996518388407</v>
       </c>
       <c r="E123">
-        <v>0.02483927873091293</v>
+        <v>0.0027722513279445013</v>
       </c>
       <c r="F123">
-        <v>0.0027479372281422778</v>
+        <v>0.049363655633590874</v>
       </c>
     </row>
     <row r="124">
@@ -6859,19 +6973,19 @@
         <v>500.80000000000001</v>
       </c>
       <c r="B124">
-        <v>0.047247388605666553</v>
+        <v>0.111167356853659</v>
       </c>
       <c r="C124">
-        <v>0.11105666220110992</v>
+        <v>0.025769728186162535</v>
       </c>
       <c r="D124">
-        <v>0.13187515759663113</v>
+        <v>0.13186984329570284</v>
       </c>
       <c r="E124">
-        <v>0.025686767877876496</v>
+        <v>0.0021164697713814714</v>
       </c>
       <c r="F124">
-        <v>0.0020918466849953652</v>
+        <v>0.047226300810502352</v>
       </c>
     </row>
     <row r="125">
@@ -6879,19 +6993,19 @@
         <v>502.5</v>
       </c>
       <c r="B125">
-        <v>0.043821416591917371</v>
+        <v>0.10725476889290998</v>
       </c>
       <c r="C125">
-        <v>0.10712963242284886</v>
+        <v>0.026393151407301273</v>
       </c>
       <c r="D125">
-        <v>0.13617080149072075</v>
+        <v>0.13616927755398553</v>
       </c>
       <c r="E125">
-        <v>0.026307848925748237</v>
+        <v>0.0033937891519244217</v>
       </c>
       <c r="F125">
-        <v>0.0033679830913746433</v>
+        <v>0.043799270465745874</v>
       </c>
     </row>
     <row r="126">
@@ -6899,19 +7013,19 @@
         <v>504.19999999999999</v>
       </c>
       <c r="B126">
-        <v>0.041339298520280766</v>
+        <v>0.10447219334717613</v>
       </c>
       <c r="C126">
-        <v>0.10434128456927766</v>
+        <v>0.02630113143407584</v>
       </c>
       <c r="D126">
-        <v>0.13705670077662976</v>
+        <v>0.13705731633824733</v>
       </c>
       <c r="E126">
-        <v>0.026215283451467002</v>
+        <v>0.0046310643156465166</v>
       </c>
       <c r="F126">
-        <v>0.0046047493608056293</v>
+        <v>0.041316771762641716</v>
       </c>
     </row>
     <row r="127">
@@ -6919,19 +7033,19 @@
         <v>505.80000000000001</v>
       </c>
       <c r="B127">
-        <v>0.039016573538191143</v>
+        <v>0.10219248719247102</v>
       </c>
       <c r="C127">
-        <v>0.10205965514450051</v>
+        <v>0.027955504507883429</v>
       </c>
       <c r="D127">
-        <v>0.13604235512250168</v>
+        <v>0.13604308670560056</v>
       </c>
       <c r="E127">
-        <v>0.027869434515357817</v>
+        <v>0.0027985266012938523</v>
       </c>
       <c r="F127">
-        <v>0.0027718173085276888</v>
+        <v>0.038994178140661889</v>
       </c>
     </row>
     <row r="128">
@@ -6939,19 +7053,19 @@
         <v>507.5</v>
       </c>
       <c r="B128">
-        <v>0.036781165084142302</v>
+        <v>0.10001282989076261</v>
       </c>
       <c r="C128">
-        <v>0.099876931193407403</v>
+        <v>0.028469056029379221</v>
       </c>
       <c r="D128">
-        <v>0.13601728461771992</v>
+        <v>0.13601963970312594</v>
       </c>
       <c r="E128">
-        <v>0.02838251412662109</v>
+        <v>0.0035113880593516732</v>
       </c>
       <c r="F128">
-        <v>0.0034842416370679959</v>
+        <v>0.036758446352105574</v>
       </c>
     </row>
     <row r="129">
@@ -6959,19 +7073,19 @@
         <v>509.19999999999999</v>
       </c>
       <c r="B129">
-        <v>0.03421523038861643</v>
+        <v>0.096593231574958624</v>
       </c>
       <c r="C129">
-        <v>0.096452943290493934</v>
+        <v>0.029063041110634288</v>
       </c>
       <c r="D129">
-        <v>0.13591351520782383</v>
+        <v>0.13591859946419937</v>
       </c>
       <c r="E129">
-        <v>0.028976424837224051</v>
+        <v>0.0043024414118187585</v>
       </c>
       <c r="F129">
-        <v>0.0042748704625088655</v>
+        <v>0.03419205480510111</v>
       </c>
     </row>
     <row r="130">
@@ -6979,19 +7093,19 @@
         <v>510.80000000000001</v>
       </c>
       <c r="B130">
-        <v>0.031931715772126112</v>
+        <v>0.092598871907468169</v>
       </c>
       <c r="C130">
-        <v>0.092453863675355075</v>
+        <v>0.030217710511398991</v>
       </c>
       <c r="D130">
-        <v>0.13494718213473578</v>
+        <v>0.13495239431514983</v>
       </c>
       <c r="E130">
-        <v>0.030131674742363418</v>
+        <v>0.0026870318150976711</v>
       </c>
       <c r="F130">
-        <v>0.002659519486537493</v>
+        <v>0.031908977481033718</v>
       </c>
     </row>
     <row r="131">
@@ -6999,19 +7113,19 @@
         <v>512.5</v>
       </c>
       <c r="B131">
-        <v>0.029903367647665904</v>
+        <v>0.090444624288346015</v>
       </c>
       <c r="C131">
-        <v>0.090291029717827043</v>
+        <v>0.02973554696106032</v>
       </c>
       <c r="D131">
-        <v>0.13785566587479342</v>
+        <v>0.13786405428208848</v>
       </c>
       <c r="E131">
-        <v>0.029647624327470611</v>
+        <v>0.0051644066990854985</v>
       </c>
       <c r="F131">
-        <v>0.0051364920210755739</v>
+        <v>0.029879601460998901</v>
       </c>
     </row>
     <row r="132">
@@ -7019,19 +7133,19 @@
         <v>514.20000000000005</v>
       </c>
       <c r="B132">
-        <v>0.028570937522493057</v>
+        <v>0.08847212270660125</v>
       </c>
       <c r="C132">
-        <v>0.088319403619143436</v>
+        <v>0.029172912055808218</v>
       </c>
       <c r="D132">
-        <v>0.13592210050838249</v>
+        <v>0.13593060236842699</v>
       </c>
       <c r="E132">
-        <v>0.029085984779888774</v>
+        <v>0.0057847326987093039</v>
       </c>
       <c r="F132">
-        <v>0.0057571824815043438</v>
+        <v>0.02854746324833999</v>
       </c>
     </row>
     <row r="133">
@@ -7039,19 +7153,19 @@
         <v>515.89999999999998</v>
       </c>
       <c r="B133">
-        <v>0.026900430568655816</v>
+        <v>0.08560567566367619</v>
       </c>
       <c r="C133">
-        <v>0.085446647484757485</v>
+        <v>0.030632801280868368</v>
       </c>
       <c r="D133">
-        <v>0.13685532205204423</v>
+        <v>0.13686518702117423</v>
       </c>
       <c r="E133">
-        <v>0.030545622274553593</v>
+        <v>0.0040554238949742803</v>
       </c>
       <c r="F133">
-        <v>0.004027318396709491</v>
+        <v>0.026876847630436986</v>
       </c>
     </row>
     <row r="134">
@@ -7059,19 +7173,19 @@
         <v>517.5</v>
       </c>
       <c r="B134">
-        <v>0.025728232090366596</v>
+        <v>0.084170676476908873</v>
       </c>
       <c r="C134">
-        <v>0.084009175334336203</v>
+        <v>0.03080246935706938</v>
       </c>
       <c r="D134">
-        <v>0.13725471243988044</v>
+        <v>0.1372661661917382</v>
       </c>
       <c r="E134">
-        <v>0.030715316579013035</v>
+        <v>0.0056817986948130084</v>
       </c>
       <c r="F134">
-        <v>0.0056532485546141702</v>
+        <v>0.02570438138608892</v>
       </c>
     </row>
     <row r="135">
@@ -7079,19 +7193,19 @@
         <v>519.20000000000005</v>
       </c>
       <c r="B135">
-        <v>0.023781948207362312</v>
+        <v>0.081864957523758122</v>
       </c>
       <c r="C135">
-        <v>0.081695041157666862</v>
+        <v>0.031752610814023086</v>
       </c>
       <c r="D135">
-        <v>0.13968490047176721</v>
+        <v>0.13969894488813353</v>
       </c>
       <c r="E135">
-        <v>0.03166376236732725</v>
+        <v>0.0054221880896685032</v>
       </c>
       <c r="F135">
-        <v>0.0053931020145874982</v>
+        <v>0.02375729978663399</v>
       </c>
     </row>
     <row r="136">
@@ -7099,19 +7213,19 @@
         <v>520.89999999999998</v>
       </c>
       <c r="B136">
-        <v>0.023089386123774286</v>
+        <v>0.079431635027999853</v>
       </c>
       <c r="C136">
-        <v>0.079259710967376967</v>
+        <v>0.030360496235783244</v>
       </c>
       <c r="D136">
-        <v>0.13964813046839078</v>
+        <v>0.13966506477563195</v>
       </c>
       <c r="E136">
-        <v>0.030273238700879324</v>
+        <v>0.0072794820855056688</v>
       </c>
       <c r="F136">
-        <v>0.0072500245263623503</v>
+        <v>0.023064519150729764</v>
       </c>
     </row>
     <row r="137">
@@ -7119,19 +7233,19 @@
         <v>522.60000000000002</v>
       </c>
       <c r="B137">
-        <v>0.021373261966870581</v>
+        <v>0.079767766223354908</v>
       </c>
       <c r="C137">
-        <v>0.079593653166550524</v>
+        <v>0.032831822111285186</v>
       </c>
       <c r="D137">
-        <v>0.13991504172546254</v>
+        <v>0.13992937564375676</v>
       </c>
       <c r="E137">
-        <v>0.032741540462523276</v>
+        <v>0.006034733628204403</v>
       </c>
       <c r="F137">
-        <v>0.0060057492927773582</v>
+        <v>0.02134841590643103</v>
       </c>
     </row>
     <row r="138">
@@ -7139,19 +7253,19 @@
         <v>524.20000000000005</v>
       </c>
       <c r="B138">
-        <v>0.020063149143112382</v>
+        <v>0.076944388143515965</v>
       </c>
       <c r="C138">
-        <v>0.076772059422866579</v>
+        <v>0.033283831064744071</v>
       </c>
       <c r="D138">
-        <v>0.13723821651033757</v>
+        <v>0.13725344829445171</v>
       </c>
       <c r="E138">
-        <v>0.033195308593471945</v>
+        <v>0.0044272384423785305</v>
       </c>
       <c r="F138">
-        <v>0.0043982801459617636</v>
+        <v>0.020038595065539198</v>
       </c>
     </row>
     <row r="139">
@@ -7159,19 +7273,19 @@
         <v>525.89999999999998</v>
       </c>
       <c r="B139">
-        <v>0.018978990503660788</v>
+        <v>0.074843632783926417</v>
       </c>
       <c r="C139">
-        <v>0.074672442673500219</v>
+        <v>0.0327887384735936</v>
       </c>
       <c r="D139">
-        <v>0.1349949791668125</v>
+        <v>0.1350102601656015</v>
       </c>
       <c r="E139">
-        <v>0.032701149129510526</v>
+        <v>0.0060363518498071358</v>
       </c>
       <c r="F139">
-        <v>0.0060082751050383439</v>
+        <v>0.01895467976132997</v>
       </c>
     </row>
     <row r="140">
@@ -7179,19 +7293,19 @@
         <v>527.60000000000002</v>
       </c>
       <c r="B140">
-        <v>0.017538258709910357</v>
+        <v>0.072088575632900623</v>
       </c>
       <c r="C140">
-        <v>0.071917376061417557</v>
+        <v>0.032306560881793824</v>
       </c>
       <c r="D140">
-        <v>0.13347400089599079</v>
+        <v>0.13349131440668394</v>
       </c>
       <c r="E140">
-        <v>0.032220404291720316</v>
+        <v>0.0063185150654739442</v>
       </c>
       <c r="F140">
-        <v>0.0062902995374569809</v>
+        <v>0.017513902499199881</v>
       </c>
     </row>
     <row r="141">
@@ -7199,19 +7313,19 @@
         <v>529.29999999999995</v>
       </c>
       <c r="B141">
-        <v>0.01562033046648211</v>
+        <v>0.069855459917322837</v>
       </c>
       <c r="C141">
-        <v>0.069682821875969608</v>
+        <v>0.033465924492151994</v>
       </c>
       <c r="D141">
-        <v>0.13214765440214063</v>
+        <v>0.13216418949580702</v>
       </c>
       <c r="E141">
-        <v>0.03338043946372727</v>
+        <v>0.0048994400556510815</v>
       </c>
       <c r="F141">
-        <v>0.0048707922354391114</v>
+        <v>0.015596695786894682</v>
       </c>
     </row>
     <row r="142">
@@ -7219,19 +7333,19 @@
         <v>530.89999999999998</v>
       </c>
       <c r="B142">
-        <v>0.014635133694906622</v>
+        <v>0.066610213632274914</v>
       </c>
       <c r="C142">
-        <v>0.066438500570570547</v>
+        <v>0.032662567630186976</v>
       </c>
       <c r="D142">
-        <v>0.12907914559591124</v>
+        <v>0.12909498219210738</v>
       </c>
       <c r="E142">
-        <v>0.032579010383416707</v>
+        <v>0.0042966975890193623</v>
       </c>
       <c r="F142">
-        <v>0.0042691677809972503</v>
+        <v>0.014612228270289608</v>
       </c>
     </row>
     <row r="143">
@@ -7239,19 +7353,19 @@
         <v>532.60000000000002</v>
       </c>
       <c r="B143">
-        <v>0.01348054122504801</v>
+        <v>0.064709595178044962</v>
       </c>
       <c r="C143">
-        <v>0.064541183506018909</v>
+        <v>0.033226728850530039</v>
       </c>
       <c r="D143">
-        <v>0.12629843894409909</v>
+        <v>0.12631474282670183</v>
       </c>
       <c r="E143">
-        <v>0.033144265269304245</v>
+        <v>0.0049439891268042227</v>
       </c>
       <c r="F143">
-        <v>0.0049169333306100758</v>
+        <v>0.013457790187738733</v>
       </c>
     </row>
     <row r="144">
@@ -7259,19 +7373,19 @@
         <v>534.29999999999995</v>
       </c>
       <c r="B144">
-        <v>0.012601231333020374</v>
+        <v>0.063139004987578823</v>
       </c>
       <c r="C144">
-        <v>0.06297294656063028</v>
+        <v>0.03288625105580225</v>
       </c>
       <c r="D144">
-        <v>0.12380617937146113</v>
+        <v>0.1238218473356195</v>
       </c>
       <c r="E144">
-        <v>0.032804755909450325</v>
+        <v>0.0048894036192310038</v>
       </c>
       <c r="F144">
-        <v>0.0048630759904755086</v>
+        <v>0.01257888793349844</v>
       </c>
     </row>
     <row r="145">
@@ -7279,19 +7393,19 @@
         <v>536</v>
       </c>
       <c r="B145">
-        <v>0.011643410947956519</v>
+        <v>0.060334009466643891</v>
       </c>
       <c r="C145">
-        <v>0.060166457499822329</v>
+        <v>0.032046271395811371</v>
       </c>
       <c r="D145">
-        <v>0.12292040924480586</v>
+        <v>0.12293734581241558</v>
       </c>
       <c r="E145">
-        <v>0.031966813518279312</v>
+        <v>0.0054646446723468469</v>
       </c>
       <c r="F145">
-        <v>0.0054379741669209206</v>
+        <v>0.011621438596632963</v>
       </c>
     </row>
     <row r="146">
@@ -7299,19 +7413,19 @@
         <v>537.60000000000002</v>
       </c>
       <c r="B146">
-        <v>0.011255950118067843</v>
+        <v>0.057545346097131918</v>
       </c>
       <c r="C146">
-        <v>0.057378124251697055</v>
+        <v>0.030718044049364079</v>
       </c>
       <c r="D146">
-        <v>0.12082878271465772</v>
+        <v>0.12084598268904452</v>
       </c>
       <c r="E146">
-        <v>0.030640659931302456</v>
+        <v>0.0067383459620899673</v>
       </c>
       <c r="F146">
-        <v>0.0067125677012522325</v>
+        <v>0.011234476699920675</v>
       </c>
     </row>
     <row r="147">
@@ -7319,19 +7433,19 @@
         <v>539.29999999999995</v>
       </c>
       <c r="B147">
-        <v>0.010362937079066669</v>
+        <v>0.058955420296620889</v>
       </c>
       <c r="C147">
-        <v>0.058792211825373579</v>
+        <v>0.032994399103030703</v>
       </c>
       <c r="D147">
-        <v>0.11985888851035625</v>
+        <v>0.11987590158559444</v>
       </c>
       <c r="E147">
-        <v>0.032916865781611071</v>
+        <v>0.0051535046707116838</v>
       </c>
       <c r="F147">
-        <v>0.0051260997498987415</v>
+        <v>0.010341503050954848</v>
       </c>
     </row>
     <row r="148">
@@ -7339,19 +7453,19 @@
         <v>541</v>
       </c>
       <c r="B148">
-        <v>0.0090198010117578751</v>
+        <v>0.056324929694835907</v>
       </c>
       <c r="C148">
-        <v>0.056154181315290513</v>
+        <v>0.033210405893299287</v>
       </c>
       <c r="D148">
-        <v>0.12182255818679413</v>
+        <v>0.12184159555069697</v>
       </c>
       <c r="E148">
-        <v>0.033132664084553301</v>
+        <v>0.0048613631609398704</v>
       </c>
       <c r="F148">
-        <v>0.0048333321408476947</v>
+        <v>0.0089981124190260421</v>
       </c>
     </row>
     <row r="149">
@@ -7359,19 +7473,19 @@
         <v>542.70000000000005</v>
       </c>
       <c r="B149">
-        <v>0.0090139036699148443</v>
+        <v>0.053001536846931159</v>
       </c>
       <c r="C149">
-        <v>0.052828817126416946</v>
+        <v>0.030449130710853048</v>
       </c>
       <c r="D149">
-        <v>0.12025587894814629</v>
+        <v>0.12027490066060391</v>
       </c>
       <c r="E149">
-        <v>0.030372731312714434</v>
+        <v>0.0078397186471360555</v>
       </c>
       <c r="F149">
-        <v>0.0078144212070212701</v>
+        <v>0.0089925955678006476</v>
       </c>
     </row>
     <row r="150">
@@ -7379,19 +7493,19 @@
         <v>544.39999999999998</v>
       </c>
       <c r="B150">
-        <v>0.0081556977359642617</v>
+        <v>0.054316888729306935</v>
       </c>
       <c r="C150">
-        <v>0.054146434451971759</v>
+        <v>0.032519077282367671</v>
       </c>
       <c r="D150">
-        <v>0.11988524135244231</v>
+        <v>0.11990374540987141</v>
       </c>
       <c r="E150">
-        <v>0.032441406382029796</v>
+        <v>0.0072666912220091832</v>
       </c>
       <c r="F150">
-        <v>0.0072406114215993623</v>
+        <v>0.0081341715584595953</v>
       </c>
     </row>
     <row r="151">
@@ -7399,19 +7513,19 @@
         <v>546</v>
       </c>
       <c r="B151">
-        <v>0.0074792977221075944</v>
+        <v>0.052600741719550481</v>
       </c>
       <c r="C151">
-        <v>0.052430466698742698</v>
+        <v>0.031880316622883202</v>
       </c>
       <c r="D151">
-        <v>0.11888690495087156</v>
+        <v>0.11890661178394855</v>
       </c>
       <c r="E151">
-        <v>0.031803843978828024</v>
+        <v>0.0080559201389245935</v>
       </c>
       <c r="F151">
-        <v>0.0080298489376724874</v>
+        <v>0.0074578336396276604</v>
       </c>
     </row>
     <row r="152">
@@ -7419,19 +7533,19 @@
         <v>547.70000000000005</v>
       </c>
       <c r="B152">
-        <v>0.0069954035207341224</v>
+        <v>0.052009079219901715</v>
       </c>
       <c r="C152">
-        <v>0.051840667103030494</v>
+        <v>0.032522170540549233</v>
       </c>
       <c r="D152">
-        <v>0.11757869990043301</v>
+        <v>0.11759826522509674</v>
       </c>
       <c r="E152">
-        <v>0.032446461779918674</v>
+        <v>0.0079095915692630678</v>
       </c>
       <c r="F152">
-        <v>0.0078832443999624149</v>
+        <v>0.0069741679553161646</v>
       </c>
     </row>
     <row r="153">
@@ -7439,19 +7553,19 @@
         <v>549.39999999999998</v>
       </c>
       <c r="B153">
-        <v>0.0067145943180085422</v>
+        <v>0.051129518147973792</v>
       </c>
       <c r="C153">
-        <v>0.050967813588233622</v>
+        <v>0.032703706351995467</v>
       </c>
       <c r="D153">
-        <v>0.11381615609252219</v>
+        <v>0.11383532314051339</v>
       </c>
       <c r="E153">
-        <v>0.032630659668184042</v>
+        <v>0.0055222135728470031</v>
       </c>
       <c r="F153">
-        <v>0.0054952243324685665</v>
+        <v>0.0066940342407173174</v>
       </c>
     </row>
     <row r="154">
@@ -7459,19 +7573,19 @@
         <v>551.10000000000002</v>
       </c>
       <c r="B154">
-        <v>0.0059417217263398325</v>
+        <v>0.046928636485969205</v>
       </c>
       <c r="C154">
-        <v>0.046761770352007091</v>
+        <v>0.029775445764230253</v>
       </c>
       <c r="D154">
-        <v>0.11343536655398559</v>
+        <v>0.11345588368888884</v>
       </c>
       <c r="E154">
-        <v>0.029704147578976697</v>
+        <v>0.007939240765314718</v>
       </c>
       <c r="F154">
-        <v>0.007913739475313198</v>
+        <v>0.0059214684535350854</v>
       </c>
     </row>
     <row r="155">
@@ -7479,19 +7593,19 @@
         <v>552.79999999999995</v>
       </c>
       <c r="B155">
-        <v>0.0057344845224198068</v>
+        <v>0.047020403748169119</v>
       </c>
       <c r="C155">
-        <v>0.046861076419389844</v>
+        <v>0.031643078807790034</v>
       </c>
       <c r="D155">
-        <v>0.10989846369866248</v>
+        <v>0.10991806945285663</v>
       </c>
       <c r="E155">
-        <v>0.031573053924485527</v>
+        <v>0.0074934676357474687</v>
       </c>
       <c r="F155">
-        <v>0.0074677181187841838</v>
+        <v>0.0057146159399613233</v>
       </c>
     </row>
     <row r="156">
@@ -7499,19 +7613,19 @@
         <v>554.39999999999998</v>
       </c>
       <c r="B156">
-        <v>0.0046600623753724254</v>
+        <v>0.043741426663054542</v>
       </c>
       <c r="C156">
-        <v>0.043578530496512974</v>
+        <v>0.029675475877536647</v>
       </c>
       <c r="D156">
-        <v>0.10927917067852733</v>
+        <v>0.10929982364762228</v>
       </c>
       <c r="E156">
-        <v>0.029606039466469773</v>
+        <v>0.0081848457044152757</v>
       </c>
       <c r="F156">
-        <v>0.008160990579935995</v>
+        <v>0.004640214393517866</v>
       </c>
     </row>
     <row r="157">
@@ -7519,19 +7633,19 @@
         <v>556.10000000000002</v>
       </c>
       <c r="B157">
-        <v>0.0047231241375316532</v>
+        <v>0.042186308421095421</v>
       </c>
       <c r="C157">
-        <v>0.042030192299025312</v>
+        <v>0.027896914392651552</v>
       </c>
       <c r="D157">
-        <v>0.10476090321458364</v>
+        <v>0.10478008298688947</v>
       </c>
       <c r="E157">
-        <v>0.027830277661231882</v>
+        <v>0.0066273766961419617</v>
       </c>
       <c r="F157">
-        <v>0.0066048139391409232</v>
+        <v>0.0047042195828975418</v>
       </c>
     </row>
     <row r="158">
@@ -7539,19 +7653,19 @@
         <v>557.79999999999995</v>
       </c>
       <c r="B158">
-        <v>0.0041467865828975683</v>
+        <v>0.038828341124224022</v>
       </c>
       <c r="C158">
-        <v>0.038671460484820265</v>
+        <v>0.02641141899737335</v>
       </c>
       <c r="D158">
-        <v>0.10295046063853222</v>
+        <v>0.10297066624914822</v>
       </c>
       <c r="E158">
-        <v>0.026346918483277828</v>
+        <v>0.0089025327587942144</v>
       </c>
       <c r="F158">
-        <v>0.0088811688612774262</v>
+        <v>0.0041282670698104592</v>
       </c>
     </row>
     <row r="159">
@@ -7559,19 +7673,19 @@
         <v>559.5</v>
       </c>
       <c r="B159">
-        <v>0.0033470031690075843</v>
+        <v>0.040256111756503295</v>
       </c>
       <c r="C159">
-        <v>0.04010783639415906</v>
+        <v>0.029117829277723564</v>
       </c>
       <c r="D159">
-        <v>0.099856096179267079</v>
+        <v>0.099875587372314292</v>
       </c>
       <c r="E159">
-        <v>0.029054329450559069</v>
+        <v>0.0066330896248256287</v>
       </c>
       <c r="F159">
-        <v>0.0066091036220787937</v>
+        <v>0.0033287105239884936</v>
       </c>
     </row>
     <row r="160">
@@ -7579,19 +7693,19 @@
         <v>561.20000000000005</v>
       </c>
       <c r="B160">
-        <v>0.0031676074762882005</v>
+        <v>0.036767671845050705</v>
       </c>
       <c r="C160">
-        <v>0.036618214025198707</v>
+        <v>0.026910961719798236</v>
       </c>
       <c r="D160">
-        <v>0.098153944076102159</v>
+        <v>0.098174002161491136</v>
       </c>
       <c r="E160">
-        <v>0.026850266019081959</v>
+        <v>0.0063571246684882773</v>
       </c>
       <c r="F160">
-        <v>0.0063341295885518435</v>
+        <v>0.0031500146829328821</v>
       </c>
     </row>
     <row r="161">
@@ -7599,19 +7713,19 @@
         <v>562.79999999999995</v>
       </c>
       <c r="B161">
-        <v>0.0031416545276524948</v>
+        <v>0.036206498230900011</v>
       </c>
       <c r="C161">
-        <v>0.036064195565194031</v>
+        <v>0.026538547869722418</v>
       </c>
       <c r="D161">
-        <v>0.094135566481004615</v>
+        <v>0.094154365113382543</v>
       </c>
       <c r="E161">
-        <v>0.026479359413721985</v>
+        <v>0.0066822007299136158</v>
       </c>
       <c r="F161">
-        <v>0.0066604917209343644</v>
+        <v>0.0031245655000729537</v>
       </c>
     </row>
     <row r="162">
@@ -7619,19 +7733,19 @@
         <v>564.5</v>
       </c>
       <c r="B162">
-        <v>0.0024425717909975575</v>
+        <v>0.034271555371736283</v>
       </c>
       <c r="C162">
-        <v>0.034127473085676957</v>
+        <v>0.025962235977666399</v>
       </c>
       <c r="D162">
-        <v>0.093747053919385079</v>
+        <v>0.093766789185300195</v>
       </c>
       <c r="E162">
-        <v>0.025904097585803677</v>
+        <v>0.0071821614597902409</v>
       </c>
       <c r="F162">
-        <v>0.0071604374232550087</v>
+        <v>0.0024256603493595695</v>
       </c>
     </row>
     <row r="163">
@@ -7639,19 +7753,19 @@
         <v>566.20000000000005</v>
       </c>
       <c r="B163">
-        <v>0.0021369057713448722</v>
+        <v>0.034809482590889111</v>
       </c>
       <c r="C163">
-        <v>0.034671563599620231</v>
+        <v>0.026912376439915883</v>
       </c>
       <c r="D163">
-        <v>0.091011346932308987</v>
+        <v>0.091030134350863198</v>
       </c>
       <c r="E163">
-        <v>0.026854013263547451</v>
+        <v>0.0057282361433906321</v>
       </c>
       <c r="F163">
-        <v>0.005707320731763256</v>
+        <v>0.0021199830044281373</v>
       </c>
     </row>
     <row r="164">
@@ -7659,19 +7773,19 @@
         <v>567.89999999999998</v>
       </c>
       <c r="B164">
-        <v>0.001947779823384164</v>
+        <v>0.033190634026904517</v>
       </c>
       <c r="C164">
-        <v>0.033053923695338758</v>
+        <v>0.026898302796026487</v>
       </c>
       <c r="D164">
-        <v>0.089286465116085761</v>
+        <v>0.089305017222313057</v>
       </c>
       <c r="E164">
-        <v>0.026841490049154346</v>
+        <v>0.0047505801536367361</v>
       </c>
       <c r="F164">
-        <v>0.004729969621604207</v>
+        <v>0.0019313324508033604</v>
       </c>
     </row>
     <row r="165">
@@ -7679,19 +7793,19 @@
         <v>569.60000000000002</v>
       </c>
       <c r="B165">
-        <v>0.0016134397147796694</v>
+        <v>0.032794260626941886</v>
       </c>
       <c r="C165">
-        <v>0.032658444387257506</v>
+        <v>0.026778302150133784</v>
       </c>
       <c r="D165">
-        <v>0.088701047080638376</v>
+        <v>0.08871999184763342</v>
       </c>
       <c r="E165">
-        <v>0.026722328671454205</v>
+        <v>0.0054047725216688249</v>
       </c>
       <c r="F165">
-        <v>0.0053833911223513126</v>
+        <v>0.0015971068627867143</v>
       </c>
     </row>
     <row r="166">
@@ -7699,19 +7813,19 @@
         <v>571.29999999999995</v>
       </c>
       <c r="B166">
-        <v>0.0014864783751375535</v>
+        <v>0.032245328263181779</v>
       </c>
       <c r="C166">
-        <v>0.032112759058833401</v>
+        <v>0.025905702956183392</v>
       </c>
       <c r="D166">
-        <v>0.086970951873011224</v>
+        <v>0.086990064866463518</v>
       </c>
       <c r="E166">
-        <v>0.025851137125024806</v>
+        <v>0.0034644715794186678</v>
       </c>
       <c r="F166">
-        <v>0.0034428439833909131</v>
+        <v>0.0014704124127615688</v>
       </c>
     </row>
     <row r="167">
@@ -7719,19 +7833,19 @@
         <v>572.89999999999998</v>
       </c>
       <c r="B167">
-        <v>0.0012305370228189402</v>
+        <v>0.030959860466300521</v>
       </c>
       <c r="C167">
-        <v>0.030827417086409958</v>
+        <v>0.025561653275698405</v>
       </c>
       <c r="D167">
-        <v>0.085986049552445404</v>
+        <v>0.086005162733389151</v>
       </c>
       <c r="E167">
-        <v>0.025508165615616828</v>
+        <v>0.0053171514938208653</v>
       </c>
       <c r="F167">
-        <v>0.0052961691335710178</v>
+        <v>0.001214768302675532</v>
       </c>
     </row>
     <row r="168">
@@ -7739,19 +7853,19 @@
         <v>574.60000000000002</v>
       </c>
       <c r="B168">
-        <v>0.0010719549411418597</v>
+        <v>0.029915806123705795</v>
       </c>
       <c r="C168">
-        <v>0.029785618949995811</v>
+        <v>0.024771526345545553</v>
       </c>
       <c r="D168">
-        <v>0.084007970551119804</v>
+        <v>0.084026371930268226</v>
       </c>
       <c r="E168">
-        <v>0.024719154267694315</v>
+        <v>0.003712494625414401</v>
       </c>
       <c r="F168">
-        <v>0.0036922591925728347</v>
+        <v>0.0010566209528736648</v>
       </c>
     </row>
     <row r="169">
@@ -7759,19 +7873,19 @@
         <v>576.29999999999995</v>
       </c>
       <c r="B169">
-        <v>0.0011526356682552597</v>
+        <v>0.028162388490948813</v>
       </c>
       <c r="C169">
-        <v>0.028036969130919527</v>
+        <v>0.023949445188231635</v>
       </c>
       <c r="D169">
-        <v>0.080559155804023896</v>
+        <v>0.080577264399259468</v>
       </c>
       <c r="E169">
-        <v>0.023899832175056882</v>
+        <v>0.0057572376223647883</v>
       </c>
       <c r="F169">
-        <v>0.0057376087483008856</v>
+        <v>0.001138006905495379</v>
       </c>
     </row>
     <row r="170">
@@ -7779,19 +7893,19 @@
         <v>578</v>
       </c>
       <c r="B170">
-        <v>0.00091575845314192125</v>
+        <v>0.027500054478472816</v>
       </c>
       <c r="C170">
-        <v>0.027375277903392115</v>
+        <v>0.023235974478086095</v>
       </c>
       <c r="D170">
-        <v>0.079941227207893484</v>
+        <v>0.07995978921775708</v>
       </c>
       <c r="E170">
-        <v>0.023186674201369932</v>
+        <v>0.0067341974519852304</v>
       </c>
       <c r="F170">
-        <v>0.0067151097650188941</v>
+        <v>0.00090108814452678093</v>
       </c>
     </row>
     <row r="171">
@@ -7799,19 +7913,19 @@
         <v>579.70000000000005</v>
       </c>
       <c r="B171">
-        <v>0.00083327344842535624</v>
+        <v>0.027504519838973479</v>
       </c>
       <c r="C171">
-        <v>0.027386618325022753</v>
+        <v>0.023558380706264752</v>
       </c>
       <c r="D171">
-        <v>0.076629131446908846</v>
+        <v>0.076646790031304063</v>
       </c>
       <c r="E171">
-        <v>0.023510625545398074</v>
+        <v>0.0048133973366611569</v>
       </c>
       <c r="F171">
-        <v>0.0047941686844308017</v>
+        <v>0.00081907928367781053</v>
       </c>
     </row>
     <row r="172">
@@ -7819,19 +7933,19 @@
         <v>581.39999999999998</v>
       </c>
       <c r="B172">
-        <v>0.00056953953358977803</v>
+        <v>0.026215805239345039</v>
       </c>
       <c r="C172">
-        <v>0.026100806009467469</v>
+        <v>0.022709597815861206</v>
       </c>
       <c r="D172">
-        <v>0.074318916683604311</v>
+        <v>0.074336269938881677</v>
       </c>
       <c r="E172">
-        <v>0.022663543001656839</v>
+        <v>0.0067412576443696857</v>
       </c>
       <c r="F172">
-        <v>0.0067226827332760881</v>
+        <v>0.0005558043335780092</v>
       </c>
     </row>
     <row r="173">
@@ -7839,19 +7953,19 @@
         <v>583</v>
       </c>
       <c r="B173">
-        <v>0.00018830392596651954</v>
+        <v>0.024855962923882428</v>
       </c>
       <c r="C173">
-        <v>0.024742260226812248</v>
+        <v>0.021872956346265564</v>
       </c>
       <c r="D173">
-        <v>0.072829475204131383</v>
+        <v>0.072847121436893078</v>
       </c>
       <c r="E173">
-        <v>0.021828374708556222</v>
+        <v>0.0064610120123622427</v>
       </c>
       <c r="F173">
-        <v>0.0064427178875252214</v>
+        <v>0.0001748496831961333</v>
       </c>
     </row>
     <row r="174">
@@ -7859,19 +7973,19 @@
         <v>584.70000000000005</v>
       </c>
       <c r="B174">
-        <v>0.00011989284233291818</v>
+        <v>0.024524571238775311</v>
       </c>
       <c r="C174">
-        <v>0.024416179198027247</v>
+        <v>0.02223216343277741</v>
       </c>
       <c r="D174">
-        <v>0.070004824661210108</v>
+        <v>0.070021638638014125</v>
       </c>
       <c r="E174">
-        <v>0.022188873700874943</v>
+        <v>0.0041594146173953937</v>
       </c>
       <c r="F174">
-        <v>0.0041413113706057032</v>
+        <v>0.00010687848900727834</v>
       </c>
     </row>
     <row r="175">
@@ -7879,19 +7993,19 @@
         <v>586.39999999999998</v>
       </c>
       <c r="B175">
-        <v>0.00015391802023568768</v>
+        <v>0.021806878568356104</v>
       </c>
       <c r="C175">
-        <v>0.02169793647893075</v>
+        <v>0.01932582034250728</v>
       </c>
       <c r="D175">
-        <v>0.068323966177458659</v>
+        <v>0.068340685612947996</v>
       </c>
       <c r="E175">
-        <v>0.01928484547565568</v>
+        <v>0.0050671586018600856</v>
       </c>
       <c r="F175">
-        <v>0.0050504988576072973</v>
+        <v>0.00014154912519205782</v>
       </c>
     </row>
     <row r="176">
@@ -7899,19 +8013,19 @@
         <v>588.10000000000002</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>0.021931899330210412</v>
       </c>
       <c r="C176">
-        <v>0.021824525846849834</v>
+        <v>0.019813711762336858</v>
       </c>
       <c r="D176">
-        <v>0.066627557278746447</v>
+        <v>0.06662695642971532</v>
       </c>
       <c r="E176">
-        <v>0.019796293518700225</v>
+        <v>0.0049800710533577739</v>
       </c>
       <c r="F176">
-        <v>0.0049557559448762467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -7919,19 +8033,19 @@
         <v>589.79999999999995</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>0.020869050333893645</v>
       </c>
       <c r="C177">
-        <v>0.020766176805777921</v>
+        <v>0.01876797952207597</v>
       </c>
       <c r="D177">
-        <v>0.063477171286023176</v>
+        <v>0.063475928848041319</v>
       </c>
       <c r="E177">
-        <v>0.018750804315263991</v>
+        <v>0.0037047220316749258</v>
       </c>
       <c r="F177">
-        <v>0.003681950851736292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7939,19 +8053,19 @@
         <v>591.5</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>0.020799985212018392</v>
       </c>
       <c r="C178">
-        <v>0.020700598871695123</v>
+        <v>0.019333605650137076</v>
       </c>
       <c r="D178">
-        <v>0.061892488525876949</v>
+        <v>0.061891325644790107</v>
       </c>
       <c r="E178">
-        <v>0.019316938328000039</v>
+        <v>0.0039847569512372052</v>
       </c>
       <c r="F178">
-        <v>0.0039619334781412479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7959,19 +8073,19 @@
         <v>593.20000000000005</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>0.020916861398753213</v>
       </c>
       <c r="C179">
-        <v>0.020819401638505861</v>
+        <v>0.018950236040671049</v>
       </c>
       <c r="D179">
-        <v>0.061084307274375922</v>
+        <v>0.061083503664472183</v>
       </c>
       <c r="E179">
-        <v>0.01893544988177244</v>
+        <v>0.0050795743620678539</v>
       </c>
       <c r="F179">
-        <v>0.0050559163601715165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -7979,19 +8093,19 @@
         <v>594.79999999999995</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>0.019386755258572058</v>
       </c>
       <c r="C180">
-        <v>0.019291472776107176</v>
+        <v>0.018005483821615664</v>
       </c>
       <c r="D180">
-        <v>0.058866462448125302</v>
+        <v>0.058865720492221579</v>
       </c>
       <c r="E180">
-        <v>0.017991223441267443</v>
+        <v>0.0030410852864381174</v>
       </c>
       <c r="F180">
-        <v>0.0030186004916312962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7999,19 +8113,19 @@
         <v>596.5</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>0.020393461465478491</v>
       </c>
       <c r="C181">
-        <v>0.020303249612080573</v>
+        <v>0.018782828944729765</v>
       </c>
       <c r="D181">
-        <v>0.057109738186898587</v>
+        <v>0.057108396011676631</v>
       </c>
       <c r="E181">
-        <v>0.018768478210424423</v>
+        <v>0.0028741450470566219</v>
       </c>
       <c r="F181">
-        <v>0.002851746690685325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -8019,19 +8133,19 @@
         <v>598.20000000000005</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>0.016419166996738795</v>
       </c>
       <c r="C182">
-        <v>0.016323234315707678</v>
+        <v>0.014669986295762641</v>
       </c>
       <c r="D182">
-        <v>0.057287743191300596</v>
+        <v>0.05728811975034908</v>
       </c>
       <c r="E182">
-        <v>0.014656924738843139</v>
+        <v>0.0041915134035521561</v>
       </c>
       <c r="F182">
-        <v>0.0041699807820645097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -8039,19 +8153,19 @@
         <v>599.89999999999998</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>0.018733876260648746</v>
       </c>
       <c r="C183">
-        <v>0.01864382353788498</v>
+        <v>0.016775541810856505</v>
       </c>
       <c r="D183">
-        <v>0.056473878158676001</v>
+        <v>0.05647434276461008</v>
       </c>
       <c r="E183">
-        <v>0.016762709142185826</v>
+        <v>0.0053000976137933115</v>
       </c>
       <c r="F183">
-        <v>0.0052773976988534201</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
